--- a/Week6/dictionary/gr2021_pell_ssl.xlsx
+++ b/Week6/dictionary/gr2021_pell_ssl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AF5D3-8087-2440-96C9-AD7F92C3F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16515" yWindow="210" windowWidth="12390" windowHeight="11640"/>
+    <workbookView xWindow="4900" yWindow="500" windowWidth="24020" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -594,9 +595,6 @@
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Total 2015 cohort (Bachelor's and other degree/certificate seeking) - four-year institutions</t>
   </si>
   <si>
@@ -607,16 +605,19 @@
   </si>
   <si>
     <t>Degree/certificate seeking 2018 cohort (less than four-year institutions)</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -709,10 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -728,12 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -743,13 +735,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,9 +760,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -805,9 +800,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,7 +872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,47 +1045,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1098,147 +1093,147 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="168" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="76.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="66.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1246,26 +1241,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="16" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1305,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>81501</v>
       </c>
@@ -1328,13 +1323,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>81506</v>
       </c>
@@ -1357,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>81511</v>
       </c>
@@ -1380,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>81516</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>81521</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>81526</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>81531</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>81536</v>
       </c>
@@ -1495,7 +1490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>81541</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>81546</v>
       </c>
@@ -1541,7 +1536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>81551</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>81556</v>
       </c>
@@ -1587,7 +1582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>81561</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>81566</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>81571</v>
       </c>
@@ -1656,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>81576</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>81581</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>81586</v>
       </c>
@@ -1725,7 +1720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>81591</v>
       </c>
@@ -1748,7 +1743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>81596</v>
       </c>
@@ -1771,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>81601</v>
       </c>
@@ -1794,7 +1789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>81606</v>
       </c>
@@ -1817,7 +1812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>81611</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>81616</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>81621</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1895,7 +1890,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1904,7 +1899,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1913,7 +1908,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1922,7 +1917,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1931,7 +1926,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1940,7 +1935,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1949,7 +1944,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1958,7 +1953,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1967,7 +1962,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1976,7 +1971,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1985,7 +1980,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1994,7 +1989,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2003,7 +1998,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2012,7 +2007,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2020,7 +2015,7 @@
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2029,7 +2024,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2038,7 +2033,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2047,7 +2042,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2055,7 +2050,7 @@
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2064,7 +2059,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2072,7 +2067,7 @@
       <c r="E48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2081,7 +2076,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2090,7 +2085,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2099,7 +2094,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2107,7 +2102,7 @@
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2116,7 +2111,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2124,7 +2119,7 @@
       <c r="E54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2133,7 +2128,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2142,7 +2137,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2151,7 +2146,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2159,7 +2154,7 @@
       <c r="E58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2168,7 +2163,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2176,7 +2171,7 @@
       <c r="E60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2185,7 +2180,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2194,7 +2189,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2203,7 +2198,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2212,7 +2207,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2221,7 +2216,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2230,7 +2225,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2239,7 +2234,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2248,7 +2243,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2257,7 +2252,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2266,7 +2261,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2275,7 +2270,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2284,7 +2279,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2293,7 +2288,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2302,7 +2297,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2311,7 +2306,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2320,7 +2315,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2329,7 +2324,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2338,7 +2333,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2347,7 +2342,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2356,7 +2351,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2365,7 +2360,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2374,7 +2369,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2383,7 +2378,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2392,7 +2387,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2401,7 +2396,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2410,7 +2405,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2419,7 +2414,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2428,7 +2423,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2437,7 +2432,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2446,7 +2441,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2455,7 +2450,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2464,7 +2459,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2473,7 +2468,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2482,7 +2477,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2491,7 +2486,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2500,7 +2495,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2509,7 +2504,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2518,7 +2513,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2527,7 +2522,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2536,7 +2531,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2545,16 +2540,16 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="22"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2562,7 +2557,7 @@
       <c r="E103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2570,7 +2565,7 @@
       <c r="E104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2579,7 +2574,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2588,7 +2583,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2597,7 +2592,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2606,7 +2601,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2615,7 +2610,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2624,7 +2619,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2633,7 +2628,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2642,7 +2637,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2650,16 +2645,16 @@
       <c r="E113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="22"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2667,7 +2662,7 @@
       <c r="E115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2675,7 +2670,7 @@
       <c r="E116" s="4"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2683,7 +2678,7 @@
       <c r="E117" s="4"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2691,16 +2686,16 @@
       <c r="E118" s="4"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="22"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2708,7 +2703,7 @@
       <c r="E120" s="4"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2716,7 +2711,7 @@
       <c r="E121" s="4"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2724,7 +2719,7 @@
       <c r="E122" s="4"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2732,7 +2727,7 @@
       <c r="E123" s="4"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2740,7 +2735,7 @@
       <c r="E124" s="4"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2748,7 +2743,7 @@
       <c r="E125" s="4"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2756,16 +2751,16 @@
       <c r="E126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="22"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2774,7 +2769,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2783,7 +2778,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2792,7 +2787,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2801,7 +2796,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2810,7 +2805,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2818,16 +2813,16 @@
       <c r="E133" s="4"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="22"/>
+      <c r="F134" s="21"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2836,7 +2831,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2845,7 +2840,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2854,7 +2849,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2870,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,847 +2873,615 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="20"/>
-    <col min="2" max="2" width="11.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="20" customWidth="1"/>
-    <col min="4" max="257" width="8.7109375" style="21"/>
-    <col min="258" max="258" width="11.140625" style="21" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="21" customWidth="1"/>
-    <col min="260" max="513" width="8.7109375" style="21"/>
-    <col min="514" max="514" width="11.140625" style="21" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="21" customWidth="1"/>
-    <col min="516" max="769" width="8.7109375" style="21"/>
-    <col min="770" max="770" width="11.140625" style="21" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="21" customWidth="1"/>
-    <col min="772" max="1025" width="8.7109375" style="21"/>
-    <col min="1026" max="1026" width="11.140625" style="21" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="21" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7109375" style="21"/>
-    <col min="1282" max="1282" width="11.140625" style="21" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="21" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7109375" style="21"/>
-    <col min="1538" max="1538" width="11.140625" style="21" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="21" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7109375" style="21"/>
-    <col min="1794" max="1794" width="11.140625" style="21" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="21" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7109375" style="21"/>
-    <col min="2050" max="2050" width="11.140625" style="21" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="21" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7109375" style="21"/>
-    <col min="2306" max="2306" width="11.140625" style="21" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="21" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7109375" style="21"/>
-    <col min="2562" max="2562" width="11.140625" style="21" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="21" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7109375" style="21"/>
-    <col min="2818" max="2818" width="11.140625" style="21" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="21" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7109375" style="21"/>
-    <col min="3074" max="3074" width="11.140625" style="21" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="21" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7109375" style="21"/>
-    <col min="3330" max="3330" width="11.140625" style="21" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="21" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7109375" style="21"/>
-    <col min="3586" max="3586" width="11.140625" style="21" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="21" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7109375" style="21"/>
-    <col min="3842" max="3842" width="11.140625" style="21" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="21" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7109375" style="21"/>
-    <col min="4098" max="4098" width="11.140625" style="21" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="21" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7109375" style="21"/>
-    <col min="4354" max="4354" width="11.140625" style="21" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="21" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7109375" style="21"/>
-    <col min="4610" max="4610" width="11.140625" style="21" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="21" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7109375" style="21"/>
-    <col min="4866" max="4866" width="11.140625" style="21" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="21" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7109375" style="21"/>
-    <col min="5122" max="5122" width="11.140625" style="21" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="21" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7109375" style="21"/>
-    <col min="5378" max="5378" width="11.140625" style="21" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="21" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7109375" style="21"/>
-    <col min="5634" max="5634" width="11.140625" style="21" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="21" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7109375" style="21"/>
-    <col min="5890" max="5890" width="11.140625" style="21" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="21" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7109375" style="21"/>
-    <col min="6146" max="6146" width="11.140625" style="21" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="21" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7109375" style="21"/>
-    <col min="6402" max="6402" width="11.140625" style="21" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="21" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7109375" style="21"/>
-    <col min="6658" max="6658" width="11.140625" style="21" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="21" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7109375" style="21"/>
-    <col min="6914" max="6914" width="11.140625" style="21" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="21" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7109375" style="21"/>
-    <col min="7170" max="7170" width="11.140625" style="21" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="21" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7109375" style="21"/>
-    <col min="7426" max="7426" width="11.140625" style="21" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="21" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7109375" style="21"/>
-    <col min="7682" max="7682" width="11.140625" style="21" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="21" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7109375" style="21"/>
-    <col min="7938" max="7938" width="11.140625" style="21" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="21" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7109375" style="21"/>
-    <col min="8194" max="8194" width="11.140625" style="21" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="21" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7109375" style="21"/>
-    <col min="8450" max="8450" width="11.140625" style="21" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="21" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7109375" style="21"/>
-    <col min="8706" max="8706" width="11.140625" style="21" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="21" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7109375" style="21"/>
-    <col min="8962" max="8962" width="11.140625" style="21" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="21" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7109375" style="21"/>
-    <col min="9218" max="9218" width="11.140625" style="21" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="21" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7109375" style="21"/>
-    <col min="9474" max="9474" width="11.140625" style="21" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="21" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7109375" style="21"/>
-    <col min="9730" max="9730" width="11.140625" style="21" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="21" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7109375" style="21"/>
-    <col min="9986" max="9986" width="11.140625" style="21" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="21" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7109375" style="21"/>
-    <col min="10242" max="10242" width="11.140625" style="21" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="21" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7109375" style="21"/>
-    <col min="10498" max="10498" width="11.140625" style="21" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="21" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7109375" style="21"/>
-    <col min="10754" max="10754" width="11.140625" style="21" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="21" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7109375" style="21"/>
-    <col min="11010" max="11010" width="11.140625" style="21" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="21" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7109375" style="21"/>
-    <col min="11266" max="11266" width="11.140625" style="21" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="21" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7109375" style="21"/>
-    <col min="11522" max="11522" width="11.140625" style="21" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="21" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7109375" style="21"/>
-    <col min="11778" max="11778" width="11.140625" style="21" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="21" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7109375" style="21"/>
-    <col min="12034" max="12034" width="11.140625" style="21" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="21" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7109375" style="21"/>
-    <col min="12290" max="12290" width="11.140625" style="21" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="21" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7109375" style="21"/>
-    <col min="12546" max="12546" width="11.140625" style="21" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="21" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7109375" style="21"/>
-    <col min="12802" max="12802" width="11.140625" style="21" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="21" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7109375" style="21"/>
-    <col min="13058" max="13058" width="11.140625" style="21" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="21" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7109375" style="21"/>
-    <col min="13314" max="13314" width="11.140625" style="21" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="21" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7109375" style="21"/>
-    <col min="13570" max="13570" width="11.140625" style="21" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="21" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7109375" style="21"/>
-    <col min="13826" max="13826" width="11.140625" style="21" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="21" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7109375" style="21"/>
-    <col min="14082" max="14082" width="11.140625" style="21" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="21" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7109375" style="21"/>
-    <col min="14338" max="14338" width="11.140625" style="21" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="21" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7109375" style="21"/>
-    <col min="14594" max="14594" width="11.140625" style="21" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="21" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7109375" style="21"/>
-    <col min="14850" max="14850" width="11.140625" style="21" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="21" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7109375" style="21"/>
-    <col min="15106" max="15106" width="11.140625" style="21" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="21" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7109375" style="21"/>
-    <col min="15362" max="15362" width="11.140625" style="21" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="21" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7109375" style="21"/>
-    <col min="15618" max="15618" width="11.140625" style="21" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="21" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7109375" style="21"/>
-    <col min="15874" max="15874" width="11.140625" style="21" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="21" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7109375" style="21"/>
-    <col min="16130" max="16130" width="11.140625" style="21" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="21" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7109375" style="21"/>
+    <col min="1" max="1" width="8.6640625" style="19"/>
+    <col min="2" max="2" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="144.83203125" style="19" customWidth="1"/>
+    <col min="4" max="257" width="8.6640625" style="20"/>
+    <col min="258" max="258" width="11.1640625" style="20" customWidth="1"/>
+    <col min="259" max="259" width="144.83203125" style="20" customWidth="1"/>
+    <col min="260" max="513" width="8.6640625" style="20"/>
+    <col min="514" max="514" width="11.1640625" style="20" customWidth="1"/>
+    <col min="515" max="515" width="144.83203125" style="20" customWidth="1"/>
+    <col min="516" max="769" width="8.6640625" style="20"/>
+    <col min="770" max="770" width="11.1640625" style="20" customWidth="1"/>
+    <col min="771" max="771" width="144.83203125" style="20" customWidth="1"/>
+    <col min="772" max="1025" width="8.6640625" style="20"/>
+    <col min="1026" max="1026" width="11.1640625" style="20" customWidth="1"/>
+    <col min="1027" max="1027" width="144.83203125" style="20" customWidth="1"/>
+    <col min="1028" max="1281" width="8.6640625" style="20"/>
+    <col min="1282" max="1282" width="11.1640625" style="20" customWidth="1"/>
+    <col min="1283" max="1283" width="144.83203125" style="20" customWidth="1"/>
+    <col min="1284" max="1537" width="8.6640625" style="20"/>
+    <col min="1538" max="1538" width="11.1640625" style="20" customWidth="1"/>
+    <col min="1539" max="1539" width="144.83203125" style="20" customWidth="1"/>
+    <col min="1540" max="1793" width="8.6640625" style="20"/>
+    <col min="1794" max="1794" width="11.1640625" style="20" customWidth="1"/>
+    <col min="1795" max="1795" width="144.83203125" style="20" customWidth="1"/>
+    <col min="1796" max="2049" width="8.6640625" style="20"/>
+    <col min="2050" max="2050" width="11.1640625" style="20" customWidth="1"/>
+    <col min="2051" max="2051" width="144.83203125" style="20" customWidth="1"/>
+    <col min="2052" max="2305" width="8.6640625" style="20"/>
+    <col min="2306" max="2306" width="11.1640625" style="20" customWidth="1"/>
+    <col min="2307" max="2307" width="144.83203125" style="20" customWidth="1"/>
+    <col min="2308" max="2561" width="8.6640625" style="20"/>
+    <col min="2562" max="2562" width="11.1640625" style="20" customWidth="1"/>
+    <col min="2563" max="2563" width="144.83203125" style="20" customWidth="1"/>
+    <col min="2564" max="2817" width="8.6640625" style="20"/>
+    <col min="2818" max="2818" width="11.1640625" style="20" customWidth="1"/>
+    <col min="2819" max="2819" width="144.83203125" style="20" customWidth="1"/>
+    <col min="2820" max="3073" width="8.6640625" style="20"/>
+    <col min="3074" max="3074" width="11.1640625" style="20" customWidth="1"/>
+    <col min="3075" max="3075" width="144.83203125" style="20" customWidth="1"/>
+    <col min="3076" max="3329" width="8.6640625" style="20"/>
+    <col min="3330" max="3330" width="11.1640625" style="20" customWidth="1"/>
+    <col min="3331" max="3331" width="144.83203125" style="20" customWidth="1"/>
+    <col min="3332" max="3585" width="8.6640625" style="20"/>
+    <col min="3586" max="3586" width="11.1640625" style="20" customWidth="1"/>
+    <col min="3587" max="3587" width="144.83203125" style="20" customWidth="1"/>
+    <col min="3588" max="3841" width="8.6640625" style="20"/>
+    <col min="3842" max="3842" width="11.1640625" style="20" customWidth="1"/>
+    <col min="3843" max="3843" width="144.83203125" style="20" customWidth="1"/>
+    <col min="3844" max="4097" width="8.6640625" style="20"/>
+    <col min="4098" max="4098" width="11.1640625" style="20" customWidth="1"/>
+    <col min="4099" max="4099" width="144.83203125" style="20" customWidth="1"/>
+    <col min="4100" max="4353" width="8.6640625" style="20"/>
+    <col min="4354" max="4354" width="11.1640625" style="20" customWidth="1"/>
+    <col min="4355" max="4355" width="144.83203125" style="20" customWidth="1"/>
+    <col min="4356" max="4609" width="8.6640625" style="20"/>
+    <col min="4610" max="4610" width="11.1640625" style="20" customWidth="1"/>
+    <col min="4611" max="4611" width="144.83203125" style="20" customWidth="1"/>
+    <col min="4612" max="4865" width="8.6640625" style="20"/>
+    <col min="4866" max="4866" width="11.1640625" style="20" customWidth="1"/>
+    <col min="4867" max="4867" width="144.83203125" style="20" customWidth="1"/>
+    <col min="4868" max="5121" width="8.6640625" style="20"/>
+    <col min="5122" max="5122" width="11.1640625" style="20" customWidth="1"/>
+    <col min="5123" max="5123" width="144.83203125" style="20" customWidth="1"/>
+    <col min="5124" max="5377" width="8.6640625" style="20"/>
+    <col min="5378" max="5378" width="11.1640625" style="20" customWidth="1"/>
+    <col min="5379" max="5379" width="144.83203125" style="20" customWidth="1"/>
+    <col min="5380" max="5633" width="8.6640625" style="20"/>
+    <col min="5634" max="5634" width="11.1640625" style="20" customWidth="1"/>
+    <col min="5635" max="5635" width="144.83203125" style="20" customWidth="1"/>
+    <col min="5636" max="5889" width="8.6640625" style="20"/>
+    <col min="5890" max="5890" width="11.1640625" style="20" customWidth="1"/>
+    <col min="5891" max="5891" width="144.83203125" style="20" customWidth="1"/>
+    <col min="5892" max="6145" width="8.6640625" style="20"/>
+    <col min="6146" max="6146" width="11.1640625" style="20" customWidth="1"/>
+    <col min="6147" max="6147" width="144.83203125" style="20" customWidth="1"/>
+    <col min="6148" max="6401" width="8.6640625" style="20"/>
+    <col min="6402" max="6402" width="11.1640625" style="20" customWidth="1"/>
+    <col min="6403" max="6403" width="144.83203125" style="20" customWidth="1"/>
+    <col min="6404" max="6657" width="8.6640625" style="20"/>
+    <col min="6658" max="6658" width="11.1640625" style="20" customWidth="1"/>
+    <col min="6659" max="6659" width="144.83203125" style="20" customWidth="1"/>
+    <col min="6660" max="6913" width="8.6640625" style="20"/>
+    <col min="6914" max="6914" width="11.1640625" style="20" customWidth="1"/>
+    <col min="6915" max="6915" width="144.83203125" style="20" customWidth="1"/>
+    <col min="6916" max="7169" width="8.6640625" style="20"/>
+    <col min="7170" max="7170" width="11.1640625" style="20" customWidth="1"/>
+    <col min="7171" max="7171" width="144.83203125" style="20" customWidth="1"/>
+    <col min="7172" max="7425" width="8.6640625" style="20"/>
+    <col min="7426" max="7426" width="11.1640625" style="20" customWidth="1"/>
+    <col min="7427" max="7427" width="144.83203125" style="20" customWidth="1"/>
+    <col min="7428" max="7681" width="8.6640625" style="20"/>
+    <col min="7682" max="7682" width="11.1640625" style="20" customWidth="1"/>
+    <col min="7683" max="7683" width="144.83203125" style="20" customWidth="1"/>
+    <col min="7684" max="7937" width="8.6640625" style="20"/>
+    <col min="7938" max="7938" width="11.1640625" style="20" customWidth="1"/>
+    <col min="7939" max="7939" width="144.83203125" style="20" customWidth="1"/>
+    <col min="7940" max="8193" width="8.6640625" style="20"/>
+    <col min="8194" max="8194" width="11.1640625" style="20" customWidth="1"/>
+    <col min="8195" max="8195" width="144.83203125" style="20" customWidth="1"/>
+    <col min="8196" max="8449" width="8.6640625" style="20"/>
+    <col min="8450" max="8450" width="11.1640625" style="20" customWidth="1"/>
+    <col min="8451" max="8451" width="144.83203125" style="20" customWidth="1"/>
+    <col min="8452" max="8705" width="8.6640625" style="20"/>
+    <col min="8706" max="8706" width="11.1640625" style="20" customWidth="1"/>
+    <col min="8707" max="8707" width="144.83203125" style="20" customWidth="1"/>
+    <col min="8708" max="8961" width="8.6640625" style="20"/>
+    <col min="8962" max="8962" width="11.1640625" style="20" customWidth="1"/>
+    <col min="8963" max="8963" width="144.83203125" style="20" customWidth="1"/>
+    <col min="8964" max="9217" width="8.6640625" style="20"/>
+    <col min="9218" max="9218" width="11.1640625" style="20" customWidth="1"/>
+    <col min="9219" max="9219" width="144.83203125" style="20" customWidth="1"/>
+    <col min="9220" max="9473" width="8.6640625" style="20"/>
+    <col min="9474" max="9474" width="11.1640625" style="20" customWidth="1"/>
+    <col min="9475" max="9475" width="144.83203125" style="20" customWidth="1"/>
+    <col min="9476" max="9729" width="8.6640625" style="20"/>
+    <col min="9730" max="9730" width="11.1640625" style="20" customWidth="1"/>
+    <col min="9731" max="9731" width="144.83203125" style="20" customWidth="1"/>
+    <col min="9732" max="9985" width="8.6640625" style="20"/>
+    <col min="9986" max="9986" width="11.1640625" style="20" customWidth="1"/>
+    <col min="9987" max="9987" width="144.83203125" style="20" customWidth="1"/>
+    <col min="9988" max="10241" width="8.6640625" style="20"/>
+    <col min="10242" max="10242" width="11.1640625" style="20" customWidth="1"/>
+    <col min="10243" max="10243" width="144.83203125" style="20" customWidth="1"/>
+    <col min="10244" max="10497" width="8.6640625" style="20"/>
+    <col min="10498" max="10498" width="11.1640625" style="20" customWidth="1"/>
+    <col min="10499" max="10499" width="144.83203125" style="20" customWidth="1"/>
+    <col min="10500" max="10753" width="8.6640625" style="20"/>
+    <col min="10754" max="10754" width="11.1640625" style="20" customWidth="1"/>
+    <col min="10755" max="10755" width="144.83203125" style="20" customWidth="1"/>
+    <col min="10756" max="11009" width="8.6640625" style="20"/>
+    <col min="11010" max="11010" width="11.1640625" style="20" customWidth="1"/>
+    <col min="11011" max="11011" width="144.83203125" style="20" customWidth="1"/>
+    <col min="11012" max="11265" width="8.6640625" style="20"/>
+    <col min="11266" max="11266" width="11.1640625" style="20" customWidth="1"/>
+    <col min="11267" max="11267" width="144.83203125" style="20" customWidth="1"/>
+    <col min="11268" max="11521" width="8.6640625" style="20"/>
+    <col min="11522" max="11522" width="11.1640625" style="20" customWidth="1"/>
+    <col min="11523" max="11523" width="144.83203125" style="20" customWidth="1"/>
+    <col min="11524" max="11777" width="8.6640625" style="20"/>
+    <col min="11778" max="11778" width="11.1640625" style="20" customWidth="1"/>
+    <col min="11779" max="11779" width="144.83203125" style="20" customWidth="1"/>
+    <col min="11780" max="12033" width="8.6640625" style="20"/>
+    <col min="12034" max="12034" width="11.1640625" style="20" customWidth="1"/>
+    <col min="12035" max="12035" width="144.83203125" style="20" customWidth="1"/>
+    <col min="12036" max="12289" width="8.6640625" style="20"/>
+    <col min="12290" max="12290" width="11.1640625" style="20" customWidth="1"/>
+    <col min="12291" max="12291" width="144.83203125" style="20" customWidth="1"/>
+    <col min="12292" max="12545" width="8.6640625" style="20"/>
+    <col min="12546" max="12546" width="11.1640625" style="20" customWidth="1"/>
+    <col min="12547" max="12547" width="144.83203125" style="20" customWidth="1"/>
+    <col min="12548" max="12801" width="8.6640625" style="20"/>
+    <col min="12802" max="12802" width="11.1640625" style="20" customWidth="1"/>
+    <col min="12803" max="12803" width="144.83203125" style="20" customWidth="1"/>
+    <col min="12804" max="13057" width="8.6640625" style="20"/>
+    <col min="13058" max="13058" width="11.1640625" style="20" customWidth="1"/>
+    <col min="13059" max="13059" width="144.83203125" style="20" customWidth="1"/>
+    <col min="13060" max="13313" width="8.6640625" style="20"/>
+    <col min="13314" max="13314" width="11.1640625" style="20" customWidth="1"/>
+    <col min="13315" max="13315" width="144.83203125" style="20" customWidth="1"/>
+    <col min="13316" max="13569" width="8.6640625" style="20"/>
+    <col min="13570" max="13570" width="11.1640625" style="20" customWidth="1"/>
+    <col min="13571" max="13571" width="144.83203125" style="20" customWidth="1"/>
+    <col min="13572" max="13825" width="8.6640625" style="20"/>
+    <col min="13826" max="13826" width="11.1640625" style="20" customWidth="1"/>
+    <col min="13827" max="13827" width="144.83203125" style="20" customWidth="1"/>
+    <col min="13828" max="14081" width="8.6640625" style="20"/>
+    <col min="14082" max="14082" width="11.1640625" style="20" customWidth="1"/>
+    <col min="14083" max="14083" width="144.83203125" style="20" customWidth="1"/>
+    <col min="14084" max="14337" width="8.6640625" style="20"/>
+    <col min="14338" max="14338" width="11.1640625" style="20" customWidth="1"/>
+    <col min="14339" max="14339" width="144.83203125" style="20" customWidth="1"/>
+    <col min="14340" max="14593" width="8.6640625" style="20"/>
+    <col min="14594" max="14594" width="11.1640625" style="20" customWidth="1"/>
+    <col min="14595" max="14595" width="144.83203125" style="20" customWidth="1"/>
+    <col min="14596" max="14849" width="8.6640625" style="20"/>
+    <col min="14850" max="14850" width="11.1640625" style="20" customWidth="1"/>
+    <col min="14851" max="14851" width="144.83203125" style="20" customWidth="1"/>
+    <col min="14852" max="15105" width="8.6640625" style="20"/>
+    <col min="15106" max="15106" width="11.1640625" style="20" customWidth="1"/>
+    <col min="15107" max="15107" width="144.83203125" style="20" customWidth="1"/>
+    <col min="15108" max="15361" width="8.6640625" style="20"/>
+    <col min="15362" max="15362" width="11.1640625" style="20" customWidth="1"/>
+    <col min="15363" max="15363" width="144.83203125" style="20" customWidth="1"/>
+    <col min="15364" max="15617" width="8.6640625" style="20"/>
+    <col min="15618" max="15618" width="11.1640625" style="20" customWidth="1"/>
+    <col min="15619" max="15619" width="144.83203125" style="20" customWidth="1"/>
+    <col min="15620" max="15873" width="8.6640625" style="20"/>
+    <col min="15874" max="15874" width="11.1640625" style="20" customWidth="1"/>
+    <col min="15875" max="15875" width="144.83203125" style="20" customWidth="1"/>
+    <col min="15876" max="16129" width="8.6640625" style="20"/>
+    <col min="16130" max="16130" width="11.1640625" style="20" customWidth="1"/>
+    <col min="16131" max="16131" width="144.83203125" style="20" customWidth="1"/>
+    <col min="16132" max="16384" width="8.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" s="18" customFormat="1" ht="12">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="202.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+    <row r="3" spans="1:3" ht="204">
+      <c r="A3" s="19">
         <v>81501</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" s="19">
         <v>81506</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+    <row r="5" spans="1:3" ht="156">
+      <c r="A5" s="19">
         <v>81511</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+    <row r="6" spans="1:3" ht="12">
+      <c r="A6" s="19">
         <v>81516</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+    <row r="7" spans="1:3" ht="72">
+      <c r="A7" s="19">
         <v>81521</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+    <row r="8" spans="1:3" ht="84">
+      <c r="A8" s="19">
         <v>81526</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+    <row r="9" spans="1:3" ht="72">
+      <c r="A9" s="19">
         <v>81531</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="19">
         <v>81536</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+    <row r="11" spans="1:3" ht="156">
+      <c r="A11" s="19">
         <v>81541</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+    <row r="12" spans="1:3" ht="12">
+      <c r="A12" s="19">
         <v>81546</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:3" ht="72">
+      <c r="A13" s="19">
         <v>81551</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:3" ht="84">
+      <c r="A14" s="19">
         <v>81556</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:3" ht="84">
+      <c r="A15" s="19">
         <v>81561</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:3" ht="48">
+      <c r="A16" s="19">
         <v>81566</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+    <row r="17" spans="1:3" ht="156">
+      <c r="A17" s="20">
         <v>81571</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+    <row r="18" spans="1:3" ht="12">
+      <c r="A18" s="20">
         <v>81576</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:3" ht="72">
+      <c r="A19" s="20">
         <v>81581</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+    <row r="20" spans="1:3" ht="84">
+      <c r="A20" s="20">
         <v>81586</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+    <row r="21" spans="1:3" ht="84">
+      <c r="A21" s="20">
         <v>81591</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+    <row r="22" spans="1:3" ht="12">
+      <c r="A22" s="20">
         <v>81596</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+    <row r="23" spans="1:3" ht="156">
+      <c r="A23" s="20">
         <v>81601</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+    <row r="24" spans="1:3" ht="12">
+      <c r="A24" s="20">
         <v>81606</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+    <row r="25" spans="1:3" ht="72">
+      <c r="A25" s="20">
         <v>81611</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:3" ht="72">
+      <c r="A26" s="20">
         <v>81616</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+    <row r="27" spans="1:3" ht="72">
+      <c r="A27" s="20">
         <v>81621</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" s="20" customFormat="1"/>
+    <row r="34" s="20" customFormat="1"/>
+    <row r="35" s="20" customFormat="1"/>
+    <row r="36" s="20" customFormat="1"/>
+    <row r="37" s="20" customFormat="1"/>
+    <row r="38" s="20" customFormat="1"/>
+    <row r="39" s="20" customFormat="1"/>
+    <row r="40" s="20" customFormat="1"/>
+    <row r="41" s="20" customFormat="1"/>
+    <row r="42" s="20" customFormat="1"/>
+    <row r="43" s="20" customFormat="1"/>
+    <row r="44" s="20" customFormat="1"/>
+    <row r="45" s="20" customFormat="1"/>
+    <row r="46" s="20" customFormat="1"/>
+    <row r="47" s="20" customFormat="1"/>
+    <row r="48" s="20" customFormat="1"/>
+    <row r="49" s="20" customFormat="1"/>
+    <row r="50" s="20" customFormat="1"/>
+    <row r="51" s="20" customFormat="1"/>
+    <row r="52" s="20" customFormat="1"/>
+    <row r="53" s="20" customFormat="1"/>
+    <row r="54" s="20" customFormat="1"/>
+    <row r="55" s="20" customFormat="1"/>
+    <row r="56" s="20" customFormat="1"/>
+    <row r="57" s="20" customFormat="1"/>
+    <row r="58" s="20" customFormat="1"/>
+    <row r="59" s="20" customFormat="1"/>
+    <row r="60" s="20" customFormat="1"/>
+    <row r="61" s="20" customFormat="1"/>
+    <row r="62" s="20" customFormat="1"/>
+    <row r="63" s="20" customFormat="1"/>
+    <row r="64" s="20" customFormat="1"/>
+    <row r="65" s="20" customFormat="1"/>
+    <row r="66" s="20" customFormat="1"/>
+    <row r="67" s="20" customFormat="1"/>
+    <row r="68" s="20" customFormat="1"/>
+    <row r="69" s="20" customFormat="1"/>
+    <row r="70" s="20" customFormat="1"/>
+    <row r="71" s="20" customFormat="1"/>
+    <row r="72" s="20" customFormat="1"/>
+    <row r="73" s="20" customFormat="1"/>
+    <row r="74" s="20" customFormat="1"/>
+    <row r="75" s="20" customFormat="1"/>
+    <row r="76" s="20" customFormat="1"/>
+    <row r="77" s="20" customFormat="1"/>
+    <row r="78" s="20" customFormat="1"/>
+    <row r="79" s="20" customFormat="1"/>
+    <row r="80" s="20" customFormat="1"/>
+    <row r="81" s="20" customFormat="1"/>
+    <row r="82" s="20" customFormat="1"/>
+    <row r="83" s="20" customFormat="1"/>
+    <row r="84" s="20" customFormat="1"/>
+    <row r="85" s="20" customFormat="1"/>
+    <row r="86" s="20" customFormat="1"/>
+    <row r="87" s="20" customFormat="1"/>
+    <row r="88" s="20" customFormat="1"/>
+    <row r="89" s="20" customFormat="1"/>
+    <row r="90" s="20" customFormat="1"/>
+    <row r="91" s="20" customFormat="1"/>
+    <row r="92" s="20" customFormat="1"/>
+    <row r="93" s="20" customFormat="1"/>
+    <row r="94" s="20" customFormat="1"/>
+    <row r="95" s="20" customFormat="1"/>
+    <row r="96" s="20" customFormat="1"/>
+    <row r="97" s="20" customFormat="1"/>
+    <row r="98" s="20" customFormat="1"/>
+    <row r="99" s="20" customFormat="1"/>
+    <row r="100" s="20" customFormat="1"/>
+    <row r="101" s="20" customFormat="1"/>
+    <row r="102" s="20" customFormat="1"/>
+    <row r="103" s="20" customFormat="1"/>
+    <row r="104" s="20" customFormat="1"/>
+    <row r="105" s="20" customFormat="1"/>
+    <row r="106" s="20" customFormat="1"/>
+    <row r="107" s="20" customFormat="1"/>
+    <row r="108" s="20" customFormat="1"/>
+    <row r="109" s="20" customFormat="1"/>
+    <row r="110" s="20" customFormat="1"/>
+    <row r="111" s="20" customFormat="1"/>
+    <row r="112" s="20" customFormat="1"/>
+    <row r="113" s="20" customFormat="1"/>
+    <row r="114" s="20" customFormat="1"/>
+    <row r="115" s="20" customFormat="1"/>
+    <row r="116" s="20" customFormat="1"/>
+    <row r="117" s="20" customFormat="1"/>
+    <row r="118" s="20" customFormat="1"/>
+    <row r="119" s="20" customFormat="1"/>
+    <row r="120" s="20" customFormat="1"/>
+    <row r="121" s="20" customFormat="1"/>
+    <row r="122" s="20" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3726,7 +3489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3734,17 +3497,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="108.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="108.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="8"/>
+    <col min="6" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>81501</v>
       </c>
@@ -3775,7 +3538,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="8">
         <v>2269</v>
@@ -3784,7 +3547,7 @@
         <v>27.15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>81501</v>
       </c>
@@ -3795,7 +3558,7 @@
         <v>116</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8">
         <v>2010</v>
@@ -3804,7 +3567,7 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>81501</v>
       </c>
@@ -3815,7 +3578,7 @@
         <v>117</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="8">
         <v>932</v>
@@ -3824,7 +3587,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>81501</v>
       </c>
@@ -3835,7 +3598,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="8">
         <v>3146</v>
@@ -3844,3592 +3607,3592 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="D6" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4">
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4">
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4">
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4">
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4">
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4">
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4">
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4">
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4">
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4">
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4">
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4">
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4">
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:5" s="4" customFormat="1">
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:5" s="4" customFormat="1">
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:5" s="4" customFormat="1">
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:5" s="4" customFormat="1">
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:5" s="4" customFormat="1">
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:5" s="4" customFormat="1">
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:5" s="4" customFormat="1">
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:5" s="4" customFormat="1">
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:5" s="4" customFormat="1">
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:5" s="4" customFormat="1">
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:5" s="4" customFormat="1">
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:5" s="4" customFormat="1">
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:5" s="4" customFormat="1">
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:5" s="4" customFormat="1">
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:5" s="4" customFormat="1">
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:5" s="4" customFormat="1">
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5" s="4" customFormat="1">
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:5" s="4" customFormat="1">
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5" s="4" customFormat="1">
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5" s="4" customFormat="1">
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:5" s="4" customFormat="1">
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:5" s="4" customFormat="1">
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:5" s="4" customFormat="1">
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:5" s="4" customFormat="1">
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:5" s="4" customFormat="1">
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:5" s="4" customFormat="1">
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:5" s="4" customFormat="1">
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:5" s="4" customFormat="1">
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:5" s="4" customFormat="1">
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:5" s="4" customFormat="1">
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:5" s="4" customFormat="1">
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:5" s="4" customFormat="1">
       <c r="E128" s="8"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4">
       <c r="D134" s="9"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4">
       <c r="D138" s="9"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4">
       <c r="D143" s="9"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4">
       <c r="D149" s="9"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4">
       <c r="D155" s="9"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4">
       <c r="D161" s="9"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4">
       <c r="D167" s="9"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4">
       <c r="D173" s="9"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4">
       <c r="D179" s="9"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4">
       <c r="D185" s="9"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4">
       <c r="D191" s="9"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4">
       <c r="D195" s="9"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4">
       <c r="D200" s="9"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4">
       <c r="D203" s="9"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4">
       <c r="D206" s="9"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4">
       <c r="D209" s="9"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4">
       <c r="D212" s="9"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4">
       <c r="D215" s="9"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4">
       <c r="D218" s="9"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4">
       <c r="D221" s="9"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4">
       <c r="D224" s="9"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4">
       <c r="D227" s="9"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4">
       <c r="D230" s="9"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4">
       <c r="D233" s="9"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4">
       <c r="D236" s="9"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4">
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4">
       <c r="D240" s="9"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4">
       <c r="D242" s="9"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4">
       <c r="D245" s="9"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4">
       <c r="D253" s="9"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4">
       <c r="D256" s="9"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4">
       <c r="D259" s="9"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4">
       <c r="D262" s="9"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4">
       <c r="D265" s="9"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4">
       <c r="D268" s="9"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4">
       <c r="D271" s="9"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4">
       <c r="D275" s="9"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4">
       <c r="D279" s="9"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4">
       <c r="D283" s="9"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4">
       <c r="D287" s="9"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4">
       <c r="D291" s="9"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4">
       <c r="D295" s="9"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4">
       <c r="D299" s="9"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:4">
       <c r="D303" s="9"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4">
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4">
       <c r="D308" s="9"/>
     </row>
-    <row r="321" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:5" s="4" customFormat="1">
       <c r="E321" s="8"/>
     </row>
-    <row r="322" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:5" s="4" customFormat="1">
       <c r="E322" s="8"/>
     </row>
-    <row r="323" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:5" s="4" customFormat="1">
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:5" s="4" customFormat="1">
       <c r="E324" s="8"/>
     </row>
-    <row r="325" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:5" s="4" customFormat="1">
       <c r="E325" s="8"/>
     </row>
-    <row r="326" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:5" s="4" customFormat="1">
       <c r="E326" s="8"/>
     </row>
-    <row r="327" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:5" s="4" customFormat="1">
       <c r="E327" s="8"/>
     </row>
-    <row r="328" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:5" s="4" customFormat="1">
       <c r="E328" s="8"/>
     </row>
-    <row r="329" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:5" s="4" customFormat="1">
       <c r="E329" s="8"/>
     </row>
-    <row r="330" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:5" s="4" customFormat="1">
       <c r="E330" s="8"/>
     </row>
-    <row r="331" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:5" s="4" customFormat="1">
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:5" s="4" customFormat="1">
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:5" s="4" customFormat="1">
       <c r="E333" s="8"/>
     </row>
-    <row r="334" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:5" s="4" customFormat="1">
       <c r="E334" s="8"/>
     </row>
-    <row r="335" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:5" s="4" customFormat="1">
       <c r="E335" s="8"/>
     </row>
-    <row r="336" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:5" s="4" customFormat="1">
       <c r="E336" s="8"/>
     </row>
-    <row r="337" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:5" s="4" customFormat="1">
       <c r="E337" s="8"/>
     </row>
-    <row r="338" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:5" s="4" customFormat="1">
       <c r="E338" s="8"/>
     </row>
-    <row r="339" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:5" s="4" customFormat="1">
       <c r="E339" s="8"/>
     </row>
-    <row r="340" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:5" s="4" customFormat="1">
       <c r="E340" s="8"/>
     </row>
-    <row r="341" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:5" s="4" customFormat="1">
       <c r="E341" s="8"/>
     </row>
-    <row r="342" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:5" s="4" customFormat="1">
       <c r="E342" s="8"/>
     </row>
-    <row r="343" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:5" s="4" customFormat="1">
       <c r="E343" s="8"/>
     </row>
-    <row r="344" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:5" s="4" customFormat="1">
       <c r="E344" s="8"/>
     </row>
-    <row r="345" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:5" s="4" customFormat="1">
       <c r="E345" s="8"/>
     </row>
-    <row r="346" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:5" s="4" customFormat="1">
       <c r="E346" s="8"/>
     </row>
-    <row r="347" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:5" s="4" customFormat="1">
       <c r="E347" s="8"/>
     </row>
-    <row r="348" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:5" s="4" customFormat="1">
       <c r="E348" s="8"/>
     </row>
-    <row r="349" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:5" s="4" customFormat="1">
       <c r="E349" s="8"/>
     </row>
-    <row r="350" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:5" s="4" customFormat="1">
       <c r="E350" s="8"/>
     </row>
-    <row r="351" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:5" s="4" customFormat="1">
       <c r="E351" s="8"/>
     </row>
-    <row r="352" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:5" s="4" customFormat="1">
       <c r="E352" s="8"/>
     </row>
-    <row r="353" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:5" s="4" customFormat="1">
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:5" s="4" customFormat="1">
       <c r="E354" s="8"/>
     </row>
-    <row r="355" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:5" s="4" customFormat="1">
       <c r="E355" s="8"/>
     </row>
-    <row r="356" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:5" s="4" customFormat="1">
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:5" s="4" customFormat="1">
       <c r="E357" s="8"/>
     </row>
-    <row r="358" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:5" s="4" customFormat="1">
       <c r="E358" s="8"/>
     </row>
-    <row r="359" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:5" s="4" customFormat="1">
       <c r="E359" s="8"/>
     </row>
-    <row r="360" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:5" s="4" customFormat="1">
       <c r="E360" s="8"/>
     </row>
-    <row r="361" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:5" s="4" customFormat="1">
       <c r="E361" s="8"/>
     </row>
-    <row r="362" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:5" s="4" customFormat="1">
       <c r="E362" s="8"/>
     </row>
-    <row r="363" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:5" s="4" customFormat="1">
       <c r="E363" s="8"/>
     </row>
-    <row r="364" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:5" s="4" customFormat="1">
       <c r="E364" s="8"/>
     </row>
-    <row r="365" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:5" s="4" customFormat="1">
       <c r="E365" s="8"/>
     </row>
-    <row r="366" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:5" s="4" customFormat="1">
       <c r="E366" s="8"/>
     </row>
-    <row r="367" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:5" s="4" customFormat="1">
       <c r="E367" s="8"/>
     </row>
-    <row r="368" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:5" s="4" customFormat="1">
       <c r="E368" s="8"/>
     </row>
-    <row r="369" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:5" s="4" customFormat="1">
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:5" s="4" customFormat="1">
       <c r="E370" s="8"/>
     </row>
-    <row r="371" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:5" s="4" customFormat="1">
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:5" s="4" customFormat="1">
       <c r="E372" s="8"/>
     </row>
-    <row r="373" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:5" s="4" customFormat="1">
       <c r="E373" s="8"/>
     </row>
-    <row r="374" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:5" s="4" customFormat="1">
       <c r="E374" s="8"/>
     </row>
-    <row r="375" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:5" s="4" customFormat="1">
       <c r="E375" s="8"/>
     </row>
-    <row r="376" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:5" s="4" customFormat="1">
       <c r="E376" s="8"/>
     </row>
-    <row r="377" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:5" s="4" customFormat="1">
       <c r="E377" s="8"/>
     </row>
-    <row r="378" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:5" s="4" customFormat="1">
       <c r="E378" s="8"/>
     </row>
-    <row r="379" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:5" s="4" customFormat="1">
       <c r="E379" s="8"/>
     </row>
-    <row r="380" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:5" s="4" customFormat="1">
       <c r="E380" s="8"/>
     </row>
-    <row r="381" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:5" s="4" customFormat="1">
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:5" s="4" customFormat="1">
       <c r="E382" s="8"/>
     </row>
-    <row r="383" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:5" s="4" customFormat="1">
       <c r="E383" s="8"/>
     </row>
-    <row r="384" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:5" s="4" customFormat="1">
       <c r="E384" s="8"/>
     </row>
-    <row r="385" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:5" s="4" customFormat="1">
       <c r="E385" s="8"/>
     </row>
-    <row r="386" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:5" s="4" customFormat="1">
       <c r="E386" s="8"/>
     </row>
-    <row r="387" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:5" s="4" customFormat="1">
       <c r="E387" s="8"/>
     </row>
-    <row r="388" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:5" s="4" customFormat="1">
       <c r="E388" s="8"/>
     </row>
-    <row r="389" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:5" s="4" customFormat="1">
       <c r="E389" s="8"/>
     </row>
-    <row r="390" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:5" s="4" customFormat="1">
       <c r="E390" s="8"/>
     </row>
-    <row r="391" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:5" s="4" customFormat="1">
       <c r="E391" s="8"/>
     </row>
-    <row r="392" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:5" s="4" customFormat="1">
       <c r="E392" s="8"/>
     </row>
-    <row r="393" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:5" s="4" customFormat="1">
       <c r="E393" s="8"/>
     </row>
-    <row r="394" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:5" s="4" customFormat="1">
       <c r="E394" s="8"/>
     </row>
-    <row r="395" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:5" s="4" customFormat="1">
       <c r="E395" s="8"/>
     </row>
-    <row r="396" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:5" s="4" customFormat="1">
       <c r="E396" s="8"/>
     </row>
-    <row r="397" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:5" s="4" customFormat="1">
       <c r="E397" s="8"/>
     </row>
-    <row r="398" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:5" s="4" customFormat="1">
       <c r="E398" s="8"/>
     </row>
-    <row r="399" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:5" s="4" customFormat="1">
       <c r="E399" s="8"/>
     </row>
-    <row r="400" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:5" s="4" customFormat="1">
       <c r="E400" s="8"/>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="4:4">
       <c r="D409" s="9"/>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="4:4">
       <c r="D413" s="9"/>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="4:4">
       <c r="D414" s="9"/>
     </row>
-    <row r="417" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:5" s="4" customFormat="1">
       <c r="E417" s="8"/>
     </row>
-    <row r="418" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:5" s="4" customFormat="1">
       <c r="E418" s="8"/>
     </row>
-    <row r="419" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:5" s="4" customFormat="1">
       <c r="E419" s="8"/>
     </row>
-    <row r="420" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:5" s="4" customFormat="1">
       <c r="E420" s="8"/>
     </row>
-    <row r="421" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:5" s="4" customFormat="1">
       <c r="E421" s="8"/>
     </row>
-    <row r="422" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:5" s="4" customFormat="1">
       <c r="E422" s="8"/>
     </row>
-    <row r="423" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:5" s="4" customFormat="1">
       <c r="E423" s="8"/>
     </row>
-    <row r="424" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:5" s="4" customFormat="1">
       <c r="E424" s="8"/>
     </row>
-    <row r="425" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:5" s="4" customFormat="1">
       <c r="E425" s="8"/>
     </row>
-    <row r="426" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:5" s="4" customFormat="1">
       <c r="E426" s="8"/>
     </row>
-    <row r="427" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:5" s="4" customFormat="1">
       <c r="E427" s="8"/>
     </row>
-    <row r="428" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:5" s="4" customFormat="1">
       <c r="E428" s="8"/>
     </row>
-    <row r="429" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:5" s="4" customFormat="1">
       <c r="E429" s="8"/>
     </row>
-    <row r="430" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:5" s="4" customFormat="1">
       <c r="E430" s="8"/>
     </row>
-    <row r="431" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:5" s="4" customFormat="1">
       <c r="E431" s="8"/>
     </row>
-    <row r="432" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:5" s="4" customFormat="1">
       <c r="E432" s="8"/>
     </row>
-    <row r="433" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:5" s="4" customFormat="1">
       <c r="E433" s="8"/>
     </row>
-    <row r="434" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:5" s="4" customFormat="1">
       <c r="E434" s="8"/>
     </row>
-    <row r="435" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:5" s="4" customFormat="1">
       <c r="E435" s="8"/>
     </row>
-    <row r="436" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:5" s="4" customFormat="1">
       <c r="E436" s="8"/>
     </row>
-    <row r="437" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:5" s="4" customFormat="1">
       <c r="E437" s="8"/>
     </row>
-    <row r="438" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:5" s="4" customFormat="1">
       <c r="E438" s="8"/>
     </row>
-    <row r="439" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:5" s="4" customFormat="1">
       <c r="E439" s="8"/>
     </row>
-    <row r="440" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:5" s="4" customFormat="1">
       <c r="E440" s="8"/>
     </row>
-    <row r="441" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:5" s="4" customFormat="1">
       <c r="E441" s="8"/>
     </row>
-    <row r="442" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:5" s="4" customFormat="1">
       <c r="E442" s="8"/>
     </row>
-    <row r="443" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:5" s="4" customFormat="1">
       <c r="E443" s="8"/>
     </row>
-    <row r="444" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:5" s="4" customFormat="1">
       <c r="E444" s="8"/>
     </row>
-    <row r="445" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:5" s="4" customFormat="1">
       <c r="E445" s="8"/>
     </row>
-    <row r="446" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:5" s="4" customFormat="1">
       <c r="E446" s="8"/>
     </row>
-    <row r="447" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:5" s="4" customFormat="1">
       <c r="E447" s="8"/>
     </row>
-    <row r="448" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:5" s="4" customFormat="1">
       <c r="E448" s="8"/>
     </row>
-    <row r="449" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:5" s="4" customFormat="1">
       <c r="E449" s="8"/>
     </row>
-    <row r="450" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:5" s="4" customFormat="1">
       <c r="E450" s="8"/>
     </row>
-    <row r="451" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:5" s="4" customFormat="1">
       <c r="E451" s="8"/>
     </row>
-    <row r="452" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:5" s="4" customFormat="1">
       <c r="E452" s="8"/>
     </row>
-    <row r="453" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:5" s="4" customFormat="1">
       <c r="E453" s="8"/>
     </row>
-    <row r="454" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:5" s="4" customFormat="1">
       <c r="E454" s="8"/>
     </row>
-    <row r="455" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:5" s="4" customFormat="1">
       <c r="E455" s="8"/>
     </row>
-    <row r="456" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:5" s="4" customFormat="1">
       <c r="E456" s="8"/>
     </row>
-    <row r="457" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:5" s="4" customFormat="1">
       <c r="E457" s="8"/>
     </row>
-    <row r="458" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:5" s="4" customFormat="1">
       <c r="E458" s="8"/>
     </row>
-    <row r="459" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:5" s="4" customFormat="1">
       <c r="E459" s="8"/>
     </row>
-    <row r="460" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:5" s="4" customFormat="1">
       <c r="E460" s="8"/>
     </row>
-    <row r="461" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:5" s="4" customFormat="1">
       <c r="E461" s="8"/>
     </row>
-    <row r="462" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:5" s="4" customFormat="1">
       <c r="E462" s="8"/>
     </row>
-    <row r="463" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:5" s="4" customFormat="1">
       <c r="E463" s="8"/>
     </row>
-    <row r="464" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:5" s="4" customFormat="1">
       <c r="E464" s="8"/>
     </row>
-    <row r="465" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:5" s="4" customFormat="1">
       <c r="E465" s="8"/>
     </row>
-    <row r="466" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:5" s="4" customFormat="1">
       <c r="E466" s="8"/>
     </row>
-    <row r="467" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:5" s="4" customFormat="1">
       <c r="E467" s="8"/>
     </row>
-    <row r="468" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:5" s="4" customFormat="1">
       <c r="E468" s="8"/>
     </row>
-    <row r="469" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:5" s="4" customFormat="1">
       <c r="E469" s="8"/>
     </row>
-    <row r="470" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:5" s="4" customFormat="1">
       <c r="E470" s="8"/>
     </row>
-    <row r="471" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:5" s="4" customFormat="1">
       <c r="E471" s="8"/>
     </row>
-    <row r="472" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:5" s="4" customFormat="1">
       <c r="E472" s="8"/>
     </row>
-    <row r="473" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:5" s="4" customFormat="1">
       <c r="E473" s="8"/>
     </row>
-    <row r="474" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:5" s="4" customFormat="1">
       <c r="E474" s="8"/>
     </row>
-    <row r="475" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:5" s="4" customFormat="1">
       <c r="E475" s="8"/>
     </row>
-    <row r="476" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:5" s="4" customFormat="1">
       <c r="E476" s="8"/>
     </row>
-    <row r="477" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:5" s="4" customFormat="1">
       <c r="E477" s="8"/>
     </row>
-    <row r="478" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:5" s="4" customFormat="1">
       <c r="E478" s="8"/>
     </row>
-    <row r="479" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:5" s="4" customFormat="1">
       <c r="E479" s="8"/>
     </row>
-    <row r="480" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:5" s="4" customFormat="1">
       <c r="E480" s="8"/>
     </row>
-    <row r="481" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:5" s="4" customFormat="1">
       <c r="E481" s="8"/>
     </row>
-    <row r="482" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:5" s="4" customFormat="1">
       <c r="E482" s="8"/>
     </row>
-    <row r="483" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:5" s="4" customFormat="1">
       <c r="E483" s="8"/>
     </row>
-    <row r="484" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:5" s="4" customFormat="1">
       <c r="E484" s="8"/>
     </row>
-    <row r="485" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:5" s="4" customFormat="1">
       <c r="E485" s="8"/>
     </row>
-    <row r="486" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:5" s="4" customFormat="1">
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:5" s="4" customFormat="1">
       <c r="E487" s="8"/>
     </row>
-    <row r="488" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:5" s="4" customFormat="1">
       <c r="E488" s="8"/>
     </row>
-    <row r="489" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:5" s="4" customFormat="1">
       <c r="E489" s="8"/>
     </row>
-    <row r="490" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:5" s="4" customFormat="1">
       <c r="E490" s="8"/>
     </row>
-    <row r="491" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:5" s="4" customFormat="1">
       <c r="E491" s="8"/>
     </row>
-    <row r="492" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:5" s="4" customFormat="1">
       <c r="E492" s="8"/>
     </row>
-    <row r="493" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:5" s="4" customFormat="1">
       <c r="E493" s="8"/>
     </row>
-    <row r="494" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:5" s="4" customFormat="1">
       <c r="E494" s="8"/>
     </row>
-    <row r="495" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:5" s="4" customFormat="1">
       <c r="E495" s="8"/>
     </row>
-    <row r="496" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:5" s="4" customFormat="1">
       <c r="E496" s="8"/>
     </row>
-    <row r="497" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:5" s="4" customFormat="1">
       <c r="E497" s="8"/>
     </row>
-    <row r="498" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:5" s="4" customFormat="1">
       <c r="E498" s="8"/>
     </row>
-    <row r="499" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:5" s="4" customFormat="1">
       <c r="E499" s="8"/>
     </row>
-    <row r="500" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:5" s="4" customFormat="1">
       <c r="E500" s="8"/>
     </row>
-    <row r="501" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:5" s="4" customFormat="1">
       <c r="E501" s="8"/>
     </row>
-    <row r="502" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:5" s="4" customFormat="1">
       <c r="E502" s="8"/>
     </row>
-    <row r="503" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:5" s="4" customFormat="1">
       <c r="E503" s="8"/>
     </row>
-    <row r="504" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:5" s="4" customFormat="1">
       <c r="E504" s="8"/>
     </row>
-    <row r="505" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:5" s="4" customFormat="1">
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:5" s="4" customFormat="1">
       <c r="E506" s="8"/>
     </row>
-    <row r="507" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:5" s="4" customFormat="1">
       <c r="E507" s="8"/>
     </row>
-    <row r="508" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:5" s="4" customFormat="1">
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:5" s="4" customFormat="1">
       <c r="E509" s="8"/>
     </row>
-    <row r="510" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:5" s="4" customFormat="1">
       <c r="E510" s="8"/>
     </row>
-    <row r="511" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:5" s="4" customFormat="1">
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:5" s="4" customFormat="1">
       <c r="E512" s="8"/>
     </row>
-    <row r="513" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:5" s="4" customFormat="1">
       <c r="E513" s="8"/>
     </row>
-    <row r="514" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:5" s="4" customFormat="1">
       <c r="E514" s="8"/>
     </row>
-    <row r="515" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:5" s="4" customFormat="1">
       <c r="E515" s="8"/>
     </row>
-    <row r="516" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:5" s="4" customFormat="1">
       <c r="E516" s="8"/>
     </row>
-    <row r="517" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:5" s="4" customFormat="1">
       <c r="E517" s="8"/>
     </row>
-    <row r="518" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:5" s="4" customFormat="1">
       <c r="E518" s="8"/>
     </row>
-    <row r="519" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:5" s="4" customFormat="1">
       <c r="E519" s="8"/>
     </row>
-    <row r="520" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:5" s="4" customFormat="1">
       <c r="E520" s="8"/>
     </row>
-    <row r="521" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:5" s="4" customFormat="1">
       <c r="E521" s="8"/>
     </row>
-    <row r="522" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:5" s="4" customFormat="1">
       <c r="E522" s="8"/>
     </row>
-    <row r="523" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:5" s="4" customFormat="1">
       <c r="E523" s="8"/>
     </row>
-    <row r="524" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:5" s="4" customFormat="1">
       <c r="E524" s="8"/>
     </row>
-    <row r="525" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:5" s="4" customFormat="1">
       <c r="E525" s="8"/>
     </row>
-    <row r="526" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:5" s="4" customFormat="1">
       <c r="E526" s="8"/>
     </row>
-    <row r="527" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:5" s="4" customFormat="1">
       <c r="E527" s="8"/>
     </row>
-    <row r="528" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:5" s="4" customFormat="1">
       <c r="E528" s="8"/>
     </row>
-    <row r="529" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:5" s="4" customFormat="1">
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:5" s="4" customFormat="1">
       <c r="E530" s="8"/>
     </row>
-    <row r="531" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:5" s="4" customFormat="1">
       <c r="E531" s="8"/>
     </row>
-    <row r="532" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:5" s="4" customFormat="1">
       <c r="E532" s="8"/>
     </row>
-    <row r="533" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:5" s="4" customFormat="1">
       <c r="E533" s="8"/>
     </row>
-    <row r="534" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:5" s="4" customFormat="1">
       <c r="E534" s="8"/>
     </row>
-    <row r="535" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:5" s="4" customFormat="1">
       <c r="E535" s="8"/>
     </row>
-    <row r="536" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:5" s="4" customFormat="1">
       <c r="E536" s="8"/>
     </row>
-    <row r="537" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:5" s="4" customFormat="1">
       <c r="E537" s="8"/>
     </row>
-    <row r="538" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:5" s="4" customFormat="1">
       <c r="E538" s="8"/>
     </row>
-    <row r="539" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:5" s="4" customFormat="1">
       <c r="E539" s="8"/>
     </row>
-    <row r="540" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:5" s="4" customFormat="1">
       <c r="E540" s="8"/>
     </row>
-    <row r="541" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:5" s="4" customFormat="1">
       <c r="E541" s="8"/>
     </row>
-    <row r="542" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:5" s="4" customFormat="1">
       <c r="E542" s="8"/>
     </row>
-    <row r="543" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:5" s="4" customFormat="1">
       <c r="E543" s="8"/>
     </row>
-    <row r="544" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:5" s="4" customFormat="1">
       <c r="E544" s="8"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="4:4">
       <c r="D554" s="9"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="4:4">
       <c r="D558" s="9"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="4:4">
       <c r="D559" s="9"/>
     </row>
-    <row r="561" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:5" s="4" customFormat="1">
       <c r="E561" s="8"/>
     </row>
-    <row r="562" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:5" s="4" customFormat="1">
       <c r="E562" s="8"/>
     </row>
-    <row r="563" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:5" s="4" customFormat="1">
       <c r="E563" s="8"/>
     </row>
-    <row r="564" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:5" s="4" customFormat="1">
       <c r="E564" s="8"/>
     </row>
-    <row r="565" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:5" s="4" customFormat="1">
       <c r="E565" s="8"/>
     </row>
-    <row r="566" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:5" s="4" customFormat="1">
       <c r="E566" s="8"/>
     </row>
-    <row r="567" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:5" s="4" customFormat="1">
       <c r="E567" s="8"/>
     </row>
-    <row r="568" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:5" s="4" customFormat="1">
       <c r="E568" s="8"/>
     </row>
-    <row r="569" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:5" s="4" customFormat="1">
       <c r="E569" s="8"/>
     </row>
-    <row r="570" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:5" s="4" customFormat="1">
       <c r="E570" s="8"/>
     </row>
-    <row r="571" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:5" s="4" customFormat="1">
       <c r="E571" s="8"/>
     </row>
-    <row r="572" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:5" s="4" customFormat="1">
       <c r="E572" s="8"/>
     </row>
-    <row r="573" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:5" s="4" customFormat="1">
       <c r="E573" s="8"/>
     </row>
-    <row r="574" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:5" s="4" customFormat="1">
       <c r="E574" s="8"/>
     </row>
-    <row r="575" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:5" s="4" customFormat="1">
       <c r="E575" s="8"/>
     </row>
-    <row r="576" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:5" s="4" customFormat="1">
       <c r="E576" s="8"/>
     </row>
-    <row r="577" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:5" s="4" customFormat="1">
       <c r="E577" s="8"/>
     </row>
-    <row r="578" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:5" s="4" customFormat="1">
       <c r="E578" s="8"/>
     </row>
-    <row r="579" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:5" s="4" customFormat="1">
       <c r="E579" s="8"/>
     </row>
-    <row r="580" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:5" s="4" customFormat="1">
       <c r="E580" s="8"/>
     </row>
-    <row r="581" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:5" s="4" customFormat="1">
       <c r="E581" s="8"/>
     </row>
-    <row r="582" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:5" s="4" customFormat="1">
       <c r="E582" s="8"/>
     </row>
-    <row r="583" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:5" s="4" customFormat="1">
       <c r="E583" s="8"/>
     </row>
-    <row r="584" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="5:5" s="4" customFormat="1">
       <c r="E584" s="8"/>
     </row>
-    <row r="585" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="5:5" s="4" customFormat="1">
       <c r="E585" s="8"/>
     </row>
-    <row r="586" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="5:5" s="4" customFormat="1">
       <c r="E586" s="8"/>
     </row>
-    <row r="587" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="5:5" s="4" customFormat="1">
       <c r="E587" s="8"/>
     </row>
-    <row r="588" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="5:5" s="4" customFormat="1">
       <c r="E588" s="8"/>
     </row>
-    <row r="589" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="5:5" s="4" customFormat="1">
       <c r="E589" s="8"/>
     </row>
-    <row r="590" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="5:5" s="4" customFormat="1">
       <c r="E590" s="8"/>
     </row>
-    <row r="591" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="5:5" s="4" customFormat="1">
       <c r="E591" s="8"/>
     </row>
-    <row r="592" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="5:5" s="4" customFormat="1">
       <c r="E592" s="8"/>
     </row>
-    <row r="593" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="5:5" s="4" customFormat="1">
       <c r="E593" s="8"/>
     </row>
-    <row r="594" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="5:5" s="4" customFormat="1">
       <c r="E594" s="8"/>
     </row>
-    <row r="595" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="5:5" s="4" customFormat="1">
       <c r="E595" s="8"/>
     </row>
-    <row r="596" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="5:5" s="4" customFormat="1">
       <c r="E596" s="8"/>
     </row>
-    <row r="597" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="5:5" s="4" customFormat="1">
       <c r="E597" s="8"/>
     </row>
-    <row r="598" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="5:5" s="4" customFormat="1">
       <c r="E598" s="8"/>
     </row>
-    <row r="599" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="5:5" s="4" customFormat="1">
       <c r="E599" s="8"/>
     </row>
-    <row r="600" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="5:5" s="4" customFormat="1">
       <c r="E600" s="8"/>
     </row>
-    <row r="601" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="5:5" s="4" customFormat="1">
       <c r="E601" s="8"/>
     </row>
-    <row r="602" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="5:5" s="4" customFormat="1">
       <c r="E602" s="8"/>
     </row>
-    <row r="603" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="5:5" s="4" customFormat="1">
       <c r="E603" s="8"/>
     </row>
-    <row r="604" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="5:5" s="4" customFormat="1">
       <c r="E604" s="8"/>
     </row>
-    <row r="605" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="5:5" s="4" customFormat="1">
       <c r="E605" s="8"/>
     </row>
-    <row r="606" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="5:5" s="4" customFormat="1">
       <c r="E606" s="8"/>
     </row>
-    <row r="607" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="5:5" s="4" customFormat="1">
       <c r="E607" s="8"/>
     </row>
-    <row r="608" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="5:5" s="4" customFormat="1">
       <c r="E608" s="8"/>
     </row>
-    <row r="609" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="5:5" s="4" customFormat="1">
       <c r="E609" s="8"/>
     </row>
-    <row r="610" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="5:5" s="4" customFormat="1">
       <c r="E610" s="8"/>
     </row>
-    <row r="611" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="5:5" s="4" customFormat="1">
       <c r="E611" s="8"/>
     </row>
-    <row r="612" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="5:5" s="4" customFormat="1">
       <c r="E612" s="8"/>
     </row>
-    <row r="613" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="5:5" s="4" customFormat="1">
       <c r="E613" s="8"/>
     </row>
-    <row r="614" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="5:5" s="4" customFormat="1">
       <c r="E614" s="8"/>
     </row>
-    <row r="615" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="5:5" s="4" customFormat="1">
       <c r="E615" s="8"/>
     </row>
-    <row r="616" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="5:5" s="4" customFormat="1">
       <c r="E616" s="8"/>
     </row>
-    <row r="617" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="5:5" s="4" customFormat="1">
       <c r="E617" s="8"/>
     </row>
-    <row r="618" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="5:5" s="4" customFormat="1">
       <c r="E618" s="8"/>
     </row>
-    <row r="619" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="5:5" s="4" customFormat="1">
       <c r="E619" s="8"/>
     </row>
-    <row r="620" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="5:5" s="4" customFormat="1">
       <c r="E620" s="8"/>
     </row>
-    <row r="621" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="5:5" s="4" customFormat="1">
       <c r="E621" s="8"/>
     </row>
-    <row r="622" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="5:5" s="4" customFormat="1">
       <c r="E622" s="8"/>
     </row>
-    <row r="623" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="5:5" s="4" customFormat="1">
       <c r="E623" s="8"/>
     </row>
-    <row r="624" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="5:5" s="4" customFormat="1">
       <c r="E624" s="8"/>
     </row>
-    <row r="625" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:5" s="4" customFormat="1">
       <c r="E625" s="8"/>
     </row>
-    <row r="626" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:5" s="4" customFormat="1">
       <c r="E626" s="8"/>
     </row>
-    <row r="627" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:5" s="4" customFormat="1">
       <c r="E627" s="8"/>
     </row>
-    <row r="628" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:5" s="4" customFormat="1">
       <c r="E628" s="8"/>
     </row>
-    <row r="629" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:5" s="4" customFormat="1">
       <c r="E629" s="8"/>
     </row>
-    <row r="630" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:5" s="4" customFormat="1">
       <c r="E630" s="8"/>
     </row>
-    <row r="631" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:5" s="4" customFormat="1">
       <c r="E631" s="8"/>
     </row>
-    <row r="632" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:5" s="4" customFormat="1">
       <c r="E632" s="8"/>
     </row>
-    <row r="633" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:5" s="4" customFormat="1">
       <c r="E633" s="8"/>
     </row>
-    <row r="634" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:5" s="4" customFormat="1">
       <c r="E634" s="8"/>
     </row>
-    <row r="635" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:5" s="4" customFormat="1">
       <c r="E635" s="8"/>
     </row>
-    <row r="636" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:5" s="4" customFormat="1">
       <c r="E636" s="8"/>
     </row>
-    <row r="637" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:5" s="4" customFormat="1">
       <c r="E637" s="8"/>
     </row>
-    <row r="638" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:5" s="4" customFormat="1">
       <c r="E638" s="8"/>
     </row>
-    <row r="639" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:5" s="4" customFormat="1">
       <c r="E639" s="8"/>
     </row>
-    <row r="640" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:5" s="4" customFormat="1">
       <c r="E640" s="8"/>
     </row>
-    <row r="641" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="5:5" s="4" customFormat="1">
       <c r="E641" s="8"/>
     </row>
-    <row r="642" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="5:5" s="4" customFormat="1">
       <c r="E642" s="8"/>
     </row>
-    <row r="643" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="5:5" s="4" customFormat="1">
       <c r="E643" s="8"/>
     </row>
-    <row r="644" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="5:5" s="4" customFormat="1">
       <c r="E644" s="8"/>
     </row>
-    <row r="645" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="5:5" s="4" customFormat="1">
       <c r="E645" s="8"/>
     </row>
-    <row r="646" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="5:5" s="4" customFormat="1">
       <c r="E646" s="8"/>
     </row>
-    <row r="647" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="5:5" s="4" customFormat="1">
       <c r="E647" s="8"/>
     </row>
-    <row r="648" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="5:5" s="4" customFormat="1">
       <c r="E648" s="8"/>
     </row>
-    <row r="649" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="5:5" s="4" customFormat="1">
       <c r="E649" s="8"/>
     </row>
-    <row r="650" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="5:5" s="4" customFormat="1">
       <c r="E650" s="8"/>
     </row>
-    <row r="651" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="5:5" s="4" customFormat="1">
       <c r="E651" s="8"/>
     </row>
-    <row r="652" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="5:5" s="4" customFormat="1">
       <c r="E652" s="8"/>
     </row>
-    <row r="653" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="5:5" s="4" customFormat="1">
       <c r="E653" s="8"/>
     </row>
-    <row r="654" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="5:5" s="4" customFormat="1">
       <c r="E654" s="8"/>
     </row>
-    <row r="655" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="5:5" s="4" customFormat="1">
       <c r="E655" s="8"/>
     </row>
-    <row r="656" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="5:5" s="4" customFormat="1">
       <c r="E656" s="8"/>
     </row>
-    <row r="657" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="5:5" s="4" customFormat="1">
       <c r="E657" s="8"/>
     </row>
-    <row r="658" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="5:5" s="4" customFormat="1">
       <c r="E658" s="8"/>
     </row>
-    <row r="659" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="5:5" s="4" customFormat="1">
       <c r="E659" s="8"/>
     </row>
-    <row r="660" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="5:5" s="4" customFormat="1">
       <c r="E660" s="8"/>
     </row>
-    <row r="661" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="5:5" s="4" customFormat="1">
       <c r="E661" s="8"/>
     </row>
-    <row r="662" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="5:5" s="4" customFormat="1">
       <c r="E662" s="8"/>
     </row>
-    <row r="663" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="5:5" s="4" customFormat="1">
       <c r="E663" s="8"/>
     </row>
-    <row r="664" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="5:5" s="4" customFormat="1">
       <c r="E664" s="8"/>
     </row>
-    <row r="665" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="5:5" s="4" customFormat="1">
       <c r="E665" s="8"/>
     </row>
-    <row r="666" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="5:5" s="4" customFormat="1">
       <c r="E666" s="8"/>
     </row>
-    <row r="667" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="5:5" s="4" customFormat="1">
       <c r="E667" s="8"/>
     </row>
-    <row r="668" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="5:5" s="4" customFormat="1">
       <c r="E668" s="8"/>
     </row>
-    <row r="669" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="5:5" s="4" customFormat="1">
       <c r="E669" s="8"/>
     </row>
-    <row r="670" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="5:5" s="4" customFormat="1">
       <c r="E670" s="8"/>
     </row>
-    <row r="671" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="5:5" s="4" customFormat="1">
       <c r="E671" s="8"/>
     </row>
-    <row r="672" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="5:5" s="4" customFormat="1">
       <c r="E672" s="8"/>
     </row>
-    <row r="673" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="5:5" s="4" customFormat="1">
       <c r="E673" s="8"/>
     </row>
-    <row r="674" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="5:5" s="4" customFormat="1">
       <c r="E674" s="8"/>
     </row>
-    <row r="675" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="5:5" s="4" customFormat="1">
       <c r="E675" s="8"/>
     </row>
-    <row r="676" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="5:5" s="4" customFormat="1">
       <c r="E676" s="8"/>
     </row>
-    <row r="677" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="5:5" s="4" customFormat="1">
       <c r="E677" s="8"/>
     </row>
-    <row r="678" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="5:5" s="4" customFormat="1">
       <c r="E678" s="8"/>
     </row>
-    <row r="679" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="5:5" s="4" customFormat="1">
       <c r="E679" s="8"/>
     </row>
-    <row r="680" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="5:5" s="4" customFormat="1">
       <c r="E680" s="8"/>
     </row>
-    <row r="681" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="5:5" s="4" customFormat="1">
       <c r="E681" s="8"/>
     </row>
-    <row r="682" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="5:5" s="4" customFormat="1">
       <c r="E682" s="8"/>
     </row>
-    <row r="683" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="5:5" s="4" customFormat="1">
       <c r="E683" s="8"/>
     </row>
-    <row r="684" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="5:5" s="4" customFormat="1">
       <c r="E684" s="8"/>
     </row>
-    <row r="685" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="5:5" s="4" customFormat="1">
       <c r="E685" s="8"/>
     </row>
-    <row r="686" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="5:5" s="4" customFormat="1">
       <c r="E686" s="8"/>
     </row>
-    <row r="687" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="5:5" s="4" customFormat="1">
       <c r="E687" s="8"/>
     </row>
-    <row r="688" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="5:5" s="4" customFormat="1">
       <c r="E688" s="8"/>
     </row>
-    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:4">
       <c r="D695" s="9"/>
     </row>
-    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:4">
       <c r="D696" s="9"/>
     </row>
-    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="699" spans="4:4">
       <c r="D699" s="9"/>
     </row>
-    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="700" spans="4:4">
       <c r="D700" s="9"/>
     </row>
-    <row r="705" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="5:5" s="4" customFormat="1">
       <c r="E705" s="8"/>
     </row>
-    <row r="706" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="5:5" s="4" customFormat="1">
       <c r="E706" s="8"/>
     </row>
-    <row r="707" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="5:5" s="4" customFormat="1">
       <c r="E707" s="8"/>
     </row>
-    <row r="708" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="5:5" s="4" customFormat="1">
       <c r="E708" s="8"/>
     </row>
-    <row r="709" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="5:5" s="4" customFormat="1">
       <c r="E709" s="8"/>
     </row>
-    <row r="710" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="5:5" s="4" customFormat="1">
       <c r="E710" s="8"/>
     </row>
-    <row r="711" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="5:5" s="4" customFormat="1">
       <c r="E711" s="8"/>
     </row>
-    <row r="712" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="5:5" s="4" customFormat="1">
       <c r="E712" s="8"/>
     </row>
-    <row r="713" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="5:5" s="4" customFormat="1">
       <c r="E713" s="8"/>
     </row>
-    <row r="714" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="5:5" s="4" customFormat="1">
       <c r="E714" s="8"/>
     </row>
-    <row r="715" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="5:5" s="4" customFormat="1">
       <c r="E715" s="8"/>
     </row>
-    <row r="716" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="5:5" s="4" customFormat="1">
       <c r="E716" s="8"/>
     </row>
-    <row r="717" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="5:5" s="4" customFormat="1">
       <c r="E717" s="8"/>
     </row>
-    <row r="718" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="5:5" s="4" customFormat="1">
       <c r="E718" s="8"/>
     </row>
-    <row r="719" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="5:5" s="4" customFormat="1">
       <c r="E719" s="8"/>
     </row>
-    <row r="720" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="5:5" s="4" customFormat="1">
       <c r="E720" s="8"/>
     </row>
-    <row r="721" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="5:5" s="4" customFormat="1">
       <c r="E721" s="8"/>
     </row>
-    <row r="722" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="5:5" s="4" customFormat="1">
       <c r="E722" s="8"/>
     </row>
-    <row r="723" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="5:5" s="4" customFormat="1">
       <c r="E723" s="8"/>
     </row>
-    <row r="724" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="5:5" s="4" customFormat="1">
       <c r="E724" s="8"/>
     </row>
-    <row r="725" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="5:5" s="4" customFormat="1">
       <c r="E725" s="8"/>
     </row>
-    <row r="726" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="5:5" s="4" customFormat="1">
       <c r="E726" s="8"/>
     </row>
-    <row r="727" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="5:5" s="4" customFormat="1">
       <c r="E727" s="8"/>
     </row>
-    <row r="728" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="5:5" s="4" customFormat="1">
       <c r="E728" s="8"/>
     </row>
-    <row r="729" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="5:5" s="4" customFormat="1">
       <c r="E729" s="8"/>
     </row>
-    <row r="730" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="5:5" s="4" customFormat="1">
       <c r="E730" s="8"/>
     </row>
-    <row r="731" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="5:5" s="4" customFormat="1">
       <c r="E731" s="8"/>
     </row>
-    <row r="732" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="5:5" s="4" customFormat="1">
       <c r="E732" s="8"/>
     </row>
-    <row r="733" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="5:5" s="4" customFormat="1">
       <c r="E733" s="8"/>
     </row>
-    <row r="734" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="5:5" s="4" customFormat="1">
       <c r="E734" s="8"/>
     </row>
-    <row r="735" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="5:5" s="4" customFormat="1">
       <c r="E735" s="8"/>
     </row>
-    <row r="736" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="5:5" s="4" customFormat="1">
       <c r="E736" s="8"/>
     </row>
-    <row r="737" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="5:5" s="4" customFormat="1">
       <c r="E737" s="8"/>
     </row>
-    <row r="738" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="5:5" s="4" customFormat="1">
       <c r="E738" s="8"/>
     </row>
-    <row r="739" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="5:5" s="4" customFormat="1">
       <c r="E739" s="8"/>
     </row>
-    <row r="740" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="5:5" s="4" customFormat="1">
       <c r="E740" s="8"/>
     </row>
-    <row r="741" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="5:5" s="4" customFormat="1">
       <c r="E741" s="8"/>
     </row>
-    <row r="742" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="5:5" s="4" customFormat="1">
       <c r="E742" s="8"/>
     </row>
-    <row r="743" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="5:5" s="4" customFormat="1">
       <c r="E743" s="8"/>
     </row>
-    <row r="744" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="5:5" s="4" customFormat="1">
       <c r="E744" s="8"/>
     </row>
-    <row r="745" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="5:5" s="4" customFormat="1">
       <c r="E745" s="8"/>
     </row>
-    <row r="746" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="5:5" s="4" customFormat="1">
       <c r="E746" s="8"/>
     </row>
-    <row r="747" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="5:5" s="4" customFormat="1">
       <c r="E747" s="8"/>
     </row>
-    <row r="748" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="5:5" s="4" customFormat="1">
       <c r="E748" s="8"/>
     </row>
-    <row r="749" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="5:5" s="4" customFormat="1">
       <c r="E749" s="8"/>
     </row>
-    <row r="750" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="5:5" s="4" customFormat="1">
       <c r="E750" s="8"/>
     </row>
-    <row r="751" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="5:5" s="4" customFormat="1">
       <c r="E751" s="8"/>
     </row>
-    <row r="752" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="5:5" s="4" customFormat="1">
       <c r="E752" s="8"/>
     </row>
-    <row r="753" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="5:5" s="4" customFormat="1">
       <c r="E753" s="8"/>
     </row>
-    <row r="754" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="5:5" s="4" customFormat="1">
       <c r="E754" s="8"/>
     </row>
-    <row r="755" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="5:5" s="4" customFormat="1">
       <c r="E755" s="8"/>
     </row>
-    <row r="756" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="5:5" s="4" customFormat="1">
       <c r="E756" s="8"/>
     </row>
-    <row r="757" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="5:5" s="4" customFormat="1">
       <c r="E757" s="8"/>
     </row>
-    <row r="758" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="5:5" s="4" customFormat="1">
       <c r="E758" s="8"/>
     </row>
-    <row r="759" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="5:5" s="4" customFormat="1">
       <c r="E759" s="8"/>
     </row>
-    <row r="760" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="5:5" s="4" customFormat="1">
       <c r="E760" s="8"/>
     </row>
-    <row r="761" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="5:5" s="4" customFormat="1">
       <c r="E761" s="8"/>
     </row>
-    <row r="762" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="5:5" s="4" customFormat="1">
       <c r="E762" s="8"/>
     </row>
-    <row r="763" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="5:5" s="4" customFormat="1">
       <c r="E763" s="8"/>
     </row>
-    <row r="764" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="5:5" s="4" customFormat="1">
       <c r="E764" s="8"/>
     </row>
-    <row r="765" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="5:5" s="4" customFormat="1">
       <c r="E765" s="8"/>
     </row>
-    <row r="766" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="5:5" s="4" customFormat="1">
       <c r="E766" s="8"/>
     </row>
-    <row r="767" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="5:5" s="4" customFormat="1">
       <c r="E767" s="8"/>
     </row>
-    <row r="768" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="5:5" s="4" customFormat="1">
       <c r="E768" s="8"/>
     </row>
-    <row r="769" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="5:5" s="4" customFormat="1">
       <c r="E769" s="8"/>
     </row>
-    <row r="770" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="5:5" s="4" customFormat="1">
       <c r="E770" s="8"/>
     </row>
-    <row r="771" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="5:5" s="4" customFormat="1">
       <c r="E771" s="8"/>
     </row>
-    <row r="772" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="5:5" s="4" customFormat="1">
       <c r="E772" s="8"/>
     </row>
-    <row r="773" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="5:5" s="4" customFormat="1">
       <c r="E773" s="8"/>
     </row>
-    <row r="774" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="5:5" s="4" customFormat="1">
       <c r="E774" s="8"/>
     </row>
-    <row r="775" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="5:5" s="4" customFormat="1">
       <c r="E775" s="8"/>
     </row>
-    <row r="776" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="5:5" s="4" customFormat="1">
       <c r="E776" s="8"/>
     </row>
-    <row r="777" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="5:5" s="4" customFormat="1">
       <c r="E777" s="8"/>
     </row>
-    <row r="778" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="5:5" s="4" customFormat="1">
       <c r="E778" s="8"/>
     </row>
-    <row r="779" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="5:5" s="4" customFormat="1">
       <c r="E779" s="8"/>
     </row>
-    <row r="780" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="5:5" s="4" customFormat="1">
       <c r="E780" s="8"/>
     </row>
-    <row r="781" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="5:5" s="4" customFormat="1">
       <c r="E781" s="8"/>
     </row>
-    <row r="782" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="5:5" s="4" customFormat="1">
       <c r="E782" s="8"/>
     </row>
-    <row r="783" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="5:5" s="4" customFormat="1">
       <c r="E783" s="8"/>
     </row>
-    <row r="784" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="5:5" s="4" customFormat="1">
       <c r="E784" s="8"/>
     </row>
-    <row r="785" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:5" s="4" customFormat="1">
       <c r="E785" s="8"/>
     </row>
-    <row r="786" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:5" s="4" customFormat="1">
       <c r="E786" s="8"/>
     </row>
-    <row r="787" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:5" s="4" customFormat="1">
       <c r="E787" s="8"/>
     </row>
-    <row r="788" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:5" s="4" customFormat="1">
       <c r="E788" s="8"/>
     </row>
-    <row r="789" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:5" s="4" customFormat="1">
       <c r="E789" s="8"/>
     </row>
-    <row r="790" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:5" s="4" customFormat="1">
       <c r="E790" s="8"/>
     </row>
-    <row r="791" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:5" s="4" customFormat="1">
       <c r="E791" s="8"/>
     </row>
-    <row r="792" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:5" s="4" customFormat="1">
       <c r="E792" s="8"/>
     </row>
-    <row r="793" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:5" s="4" customFormat="1">
       <c r="E793" s="8"/>
     </row>
-    <row r="794" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:5" s="4" customFormat="1">
       <c r="E794" s="8"/>
     </row>
-    <row r="795" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:5" s="4" customFormat="1">
       <c r="E795" s="8"/>
     </row>
-    <row r="796" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:5" s="4" customFormat="1">
       <c r="E796" s="8"/>
     </row>
-    <row r="797" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:5" s="4" customFormat="1">
       <c r="E797" s="8"/>
     </row>
-    <row r="798" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:5" s="4" customFormat="1">
       <c r="E798" s="8"/>
     </row>
-    <row r="799" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:5" s="4" customFormat="1">
       <c r="E799" s="8"/>
     </row>
-    <row r="800" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:5" s="4" customFormat="1">
       <c r="E800" s="8"/>
     </row>
-    <row r="801" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:5" s="4" customFormat="1">
       <c r="E801" s="8"/>
     </row>
-    <row r="802" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:5" s="4" customFormat="1">
       <c r="E802" s="8"/>
     </row>
-    <row r="803" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:5" s="4" customFormat="1">
       <c r="E803" s="8"/>
     </row>
-    <row r="804" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:5" s="4" customFormat="1">
       <c r="E804" s="8"/>
     </row>
-    <row r="805" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:5" s="4" customFormat="1">
       <c r="E805" s="8"/>
     </row>
-    <row r="806" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:5" s="4" customFormat="1">
       <c r="E806" s="8"/>
     </row>
-    <row r="807" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:5" s="4" customFormat="1">
       <c r="E807" s="8"/>
     </row>
-    <row r="808" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:5" s="4" customFormat="1">
       <c r="E808" s="8"/>
     </row>
-    <row r="809" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:5" s="4" customFormat="1">
       <c r="E809" s="8"/>
     </row>
-    <row r="810" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:5" s="4" customFormat="1">
       <c r="E810" s="8"/>
     </row>
-    <row r="811" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:5" s="4" customFormat="1">
       <c r="E811" s="8"/>
     </row>
-    <row r="812" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:5" s="4" customFormat="1">
       <c r="E812" s="8"/>
     </row>
-    <row r="813" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:5" s="4" customFormat="1">
       <c r="E813" s="8"/>
     </row>
-    <row r="814" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:5" s="4" customFormat="1">
       <c r="E814" s="8"/>
     </row>
-    <row r="815" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:5" s="4" customFormat="1">
       <c r="E815" s="8"/>
     </row>
-    <row r="816" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:5" s="4" customFormat="1">
       <c r="E816" s="8"/>
     </row>
-    <row r="817" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="5:5" s="4" customFormat="1">
       <c r="E817" s="8"/>
     </row>
-    <row r="818" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="5:5" s="4" customFormat="1">
       <c r="E818" s="8"/>
     </row>
-    <row r="819" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="5:5" s="4" customFormat="1">
       <c r="E819" s="8"/>
     </row>
-    <row r="820" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="5:5" s="4" customFormat="1">
       <c r="E820" s="8"/>
     </row>
-    <row r="821" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="5:5" s="4" customFormat="1">
       <c r="E821" s="8"/>
     </row>
-    <row r="822" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="5:5" s="4" customFormat="1">
       <c r="E822" s="8"/>
     </row>
-    <row r="823" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="5:5" s="4" customFormat="1">
       <c r="E823" s="8"/>
     </row>
-    <row r="824" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="5:5" s="4" customFormat="1">
       <c r="E824" s="8"/>
     </row>
-    <row r="825" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="5:5" s="4" customFormat="1">
       <c r="E825" s="8"/>
     </row>
-    <row r="826" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="5:5" s="4" customFormat="1">
       <c r="E826" s="8"/>
     </row>
-    <row r="827" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="5:5" s="4" customFormat="1">
       <c r="E827" s="8"/>
     </row>
-    <row r="828" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="5:5" s="4" customFormat="1">
       <c r="E828" s="8"/>
     </row>
-    <row r="829" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="5:5" s="4" customFormat="1">
       <c r="E829" s="8"/>
     </row>
-    <row r="830" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="5:5" s="4" customFormat="1">
       <c r="E830" s="8"/>
     </row>
-    <row r="831" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="5:5" s="4" customFormat="1">
       <c r="E831" s="8"/>
     </row>
-    <row r="832" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="5:5" s="4" customFormat="1">
       <c r="E832" s="8"/>
     </row>
-    <row r="833" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="5:5" s="4" customFormat="1">
       <c r="E833" s="8"/>
     </row>
-    <row r="834" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="5:5" s="4" customFormat="1">
       <c r="E834" s="8"/>
     </row>
-    <row r="835" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="5:5" s="4" customFormat="1">
       <c r="E835" s="8"/>
     </row>
-    <row r="836" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="5:5" s="4" customFormat="1">
       <c r="E836" s="8"/>
     </row>
-    <row r="837" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="5:5" s="4" customFormat="1">
       <c r="E837" s="8"/>
     </row>
-    <row r="838" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="5:5" s="4" customFormat="1">
       <c r="E838" s="8"/>
     </row>
-    <row r="839" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="5:5" s="4" customFormat="1">
       <c r="E839" s="8"/>
     </row>
-    <row r="840" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="5:5" s="4" customFormat="1">
       <c r="E840" s="8"/>
     </row>
-    <row r="841" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="5:5" s="4" customFormat="1">
       <c r="E841" s="8"/>
     </row>
-    <row r="842" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="5:5" s="4" customFormat="1">
       <c r="E842" s="8"/>
     </row>
-    <row r="843" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="5:5" s="4" customFormat="1">
       <c r="E843" s="8"/>
     </row>
-    <row r="844" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="5:5" s="4" customFormat="1">
       <c r="E844" s="8"/>
     </row>
-    <row r="845" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="5:5" s="4" customFormat="1">
       <c r="E845" s="8"/>
     </row>
-    <row r="846" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="5:5" s="4" customFormat="1">
       <c r="E846" s="8"/>
     </row>
-    <row r="847" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="5:5" s="4" customFormat="1">
       <c r="E847" s="8"/>
     </row>
-    <row r="848" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="5:5" s="4" customFormat="1">
       <c r="E848" s="8"/>
     </row>
-    <row r="849" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="5:5" s="4" customFormat="1">
       <c r="E849" s="8"/>
     </row>
-    <row r="850" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="5:5" s="4" customFormat="1">
       <c r="E850" s="8"/>
     </row>
-    <row r="851" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="5:5" s="4" customFormat="1">
       <c r="E851" s="8"/>
     </row>
-    <row r="852" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="5:5" s="4" customFormat="1">
       <c r="E852" s="8"/>
     </row>
-    <row r="853" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="5:5" s="4" customFormat="1">
       <c r="E853" s="8"/>
     </row>
-    <row r="854" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="5:5" s="4" customFormat="1">
       <c r="E854" s="8"/>
     </row>
-    <row r="855" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="5:5" s="4" customFormat="1">
       <c r="E855" s="8"/>
     </row>
-    <row r="856" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="5:5" s="4" customFormat="1">
       <c r="E856" s="8"/>
     </row>
-    <row r="857" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="5:5" s="4" customFormat="1">
       <c r="E857" s="8"/>
     </row>
-    <row r="858" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="5:5" s="4" customFormat="1">
       <c r="E858" s="8"/>
     </row>
-    <row r="859" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="5:5" s="4" customFormat="1">
       <c r="E859" s="8"/>
     </row>
-    <row r="860" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="5:5" s="4" customFormat="1">
       <c r="E860" s="8"/>
     </row>
-    <row r="861" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="5:5" s="4" customFormat="1">
       <c r="E861" s="8"/>
     </row>
-    <row r="862" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="5:5" s="4" customFormat="1">
       <c r="E862" s="8"/>
     </row>
-    <row r="863" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="5:5" s="4" customFormat="1">
       <c r="E863" s="8"/>
     </row>
-    <row r="864" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="5:5" s="4" customFormat="1">
       <c r="E864" s="8"/>
     </row>
-    <row r="870" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="870" spans="4:4">
       <c r="D870" s="9"/>
     </row>
-    <row r="871" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="871" spans="4:4">
       <c r="D871" s="9"/>
     </row>
-    <row r="874" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="874" spans="4:4">
       <c r="D874" s="9"/>
     </row>
-    <row r="875" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="875" spans="4:4">
       <c r="D875" s="9"/>
     </row>
-    <row r="877" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="877" spans="4:4">
       <c r="D877" s="9"/>
     </row>
-    <row r="878" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="878" spans="4:4">
       <c r="D878" s="9"/>
     </row>
-    <row r="881" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="881" spans="4:4">
       <c r="D881" s="9"/>
     </row>
-    <row r="882" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="882" spans="4:4">
       <c r="D882" s="9"/>
     </row>
-    <row r="885" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="885" spans="4:4">
       <c r="D885" s="9"/>
     </row>
-    <row r="886" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="886" spans="4:4">
       <c r="D886" s="9"/>
     </row>
-    <row r="888" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="888" spans="4:4">
       <c r="D888" s="9"/>
     </row>
-    <row r="889" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="889" spans="4:4">
       <c r="D889" s="9"/>
     </row>
-    <row r="891" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="891" spans="4:4">
       <c r="D891" s="9"/>
     </row>
-    <row r="892" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="892" spans="4:4">
       <c r="D892" s="9"/>
     </row>
-    <row r="894" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="894" spans="4:4">
       <c r="D894" s="9"/>
     </row>
-    <row r="895" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="895" spans="4:4">
       <c r="D895" s="9"/>
     </row>
-    <row r="897" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="897" spans="4:4">
       <c r="D897" s="9"/>
     </row>
-    <row r="898" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="898" spans="4:4">
       <c r="D898" s="9"/>
     </row>
-    <row r="900" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="900" spans="4:4">
       <c r="D900" s="9"/>
     </row>
-    <row r="901" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="901" spans="4:4">
       <c r="D901" s="9"/>
     </row>
-    <row r="904" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="904" spans="4:4">
       <c r="D904" s="9"/>
     </row>
-    <row r="905" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="905" spans="4:4">
       <c r="D905" s="9"/>
     </row>
-    <row r="907" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="907" spans="4:4">
       <c r="D907" s="9"/>
     </row>
-    <row r="908" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="908" spans="4:4">
       <c r="D908" s="9"/>
     </row>
-    <row r="910" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="910" spans="4:4">
       <c r="D910" s="9"/>
     </row>
-    <row r="911" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="911" spans="4:4">
       <c r="D911" s="9"/>
     </row>
-    <row r="912" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:4" ht="15">
       <c r="D912" s="10"/>
     </row>
-    <row r="913" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="913" spans="4:4">
       <c r="D913" s="9"/>
     </row>
-    <row r="914" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="914" spans="4:4">
       <c r="D914" s="9"/>
     </row>
-    <row r="918" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:4" ht="15">
       <c r="D918" s="10"/>
     </row>
-    <row r="919" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="919" spans="4:4">
       <c r="D919" s="9"/>
     </row>
-    <row r="943" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:4" ht="15">
       <c r="D943" s="10"/>
     </row>
-    <row r="944" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="944" spans="4:4">
       <c r="D944" s="9"/>
     </row>
-    <row r="948" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:4" ht="15">
       <c r="D948" s="10"/>
     </row>
-    <row r="949" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="949" spans="4:4">
       <c r="D949" s="9"/>
     </row>
-    <row r="950" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="950" spans="4:4">
       <c r="D950" s="9"/>
     </row>
-    <row r="951" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="951" spans="4:4">
       <c r="D951" s="9"/>
     </row>
-    <row r="952" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="952" spans="4:4">
       <c r="D952" s="9"/>
     </row>
-    <row r="953" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="953" spans="4:4">
       <c r="D953" s="9"/>
     </row>
-    <row r="954" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="954" spans="4:4">
       <c r="D954" s="9"/>
     </row>
-    <row r="955" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="955" spans="4:4">
       <c r="D955" s="9"/>
     </row>
-    <row r="956" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="956" spans="4:4">
       <c r="D956" s="9"/>
     </row>
-    <row r="957" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="957" spans="4:4">
       <c r="D957" s="9"/>
     </row>
-    <row r="958" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="958" spans="4:4">
       <c r="D958" s="9"/>
     </row>
-    <row r="959" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="959" spans="4:4">
       <c r="D959" s="9"/>
     </row>
-    <row r="960" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="960" spans="4:4">
       <c r="D960" s="9"/>
     </row>
-    <row r="961" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="961" spans="4:4">
       <c r="D961" s="9"/>
     </row>
-    <row r="962" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="962" spans="4:4">
       <c r="D962" s="9"/>
     </row>
-    <row r="963" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="963" spans="4:4">
       <c r="D963" s="9"/>
     </row>
-    <row r="964" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="964" spans="4:4">
       <c r="D964" s="9"/>
     </row>
-    <row r="965" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="965" spans="4:4">
       <c r="D965" s="9"/>
     </row>
-    <row r="977" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="5:5" s="4" customFormat="1">
       <c r="E977" s="8"/>
     </row>
-    <row r="978" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="5:5" s="4" customFormat="1">
       <c r="E978" s="8"/>
     </row>
-    <row r="979" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="5:5" s="4" customFormat="1">
       <c r="E979" s="8"/>
     </row>
-    <row r="980" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="5:5" s="4" customFormat="1">
       <c r="E980" s="8"/>
     </row>
-    <row r="981" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="5:5" s="4" customFormat="1">
       <c r="E981" s="8"/>
     </row>
-    <row r="982" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="5:5" s="4" customFormat="1">
       <c r="E982" s="8"/>
     </row>
-    <row r="983" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="5:5" s="4" customFormat="1">
       <c r="E983" s="8"/>
     </row>
-    <row r="984" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="5:5" s="4" customFormat="1">
       <c r="E984" s="8"/>
     </row>
-    <row r="985" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="5:5" s="4" customFormat="1">
       <c r="E985" s="8"/>
     </row>
-    <row r="986" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="5:5" s="4" customFormat="1">
       <c r="E986" s="8"/>
     </row>
-    <row r="987" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="5:5" s="4" customFormat="1">
       <c r="E987" s="8"/>
     </row>
-    <row r="988" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="5:5" s="4" customFormat="1">
       <c r="E988" s="8"/>
     </row>
-    <row r="989" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="5:5" s="4" customFormat="1">
       <c r="E989" s="8"/>
     </row>
-    <row r="990" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="5:5" s="4" customFormat="1">
       <c r="E990" s="8"/>
     </row>
-    <row r="991" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="5:5" s="4" customFormat="1">
       <c r="E991" s="8"/>
     </row>
-    <row r="992" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="5:5" s="4" customFormat="1">
       <c r="E992" s="8"/>
     </row>
-    <row r="993" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="5:5" s="4" customFormat="1">
       <c r="E993" s="8"/>
     </row>
-    <row r="994" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="5:5" s="4" customFormat="1">
       <c r="E994" s="8"/>
     </row>
-    <row r="995" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="5:5" s="4" customFormat="1">
       <c r="E995" s="8"/>
     </row>
-    <row r="996" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:5" s="4" customFormat="1">
       <c r="E996" s="8"/>
     </row>
-    <row r="997" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="5:5" s="4" customFormat="1">
       <c r="E997" s="8"/>
     </row>
-    <row r="998" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="5:5" s="4" customFormat="1">
       <c r="E998" s="8"/>
     </row>
-    <row r="999" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="5:5" s="4" customFormat="1">
       <c r="E999" s="8"/>
     </row>
-    <row r="1000" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="5:5" s="4" customFormat="1">
       <c r="E1000" s="8"/>
     </row>
-    <row r="1001" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="5:5" s="4" customFormat="1">
       <c r="E1001" s="8"/>
     </row>
-    <row r="1002" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="5:5" s="4" customFormat="1">
       <c r="E1002" s="8"/>
     </row>
-    <row r="1003" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="5:5" s="4" customFormat="1">
       <c r="E1003" s="8"/>
     </row>
-    <row r="1004" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="5:5" s="4" customFormat="1">
       <c r="E1004" s="8"/>
     </row>
-    <row r="1005" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="5:5" s="4" customFormat="1">
       <c r="E1005" s="8"/>
     </row>
-    <row r="1006" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="5:5" s="4" customFormat="1">
       <c r="E1006" s="8"/>
     </row>
-    <row r="1007" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="5:5" s="4" customFormat="1">
       <c r="E1007" s="8"/>
     </row>
-    <row r="1008" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="5:5" s="4" customFormat="1">
       <c r="E1008" s="8"/>
     </row>
-    <row r="1009" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="5:5" s="4" customFormat="1">
       <c r="E1009" s="8"/>
     </row>
-    <row r="1010" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="5:5" s="4" customFormat="1">
       <c r="E1010" s="8"/>
     </row>
-    <row r="1011" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="5:5" s="4" customFormat="1">
       <c r="E1011" s="8"/>
     </row>
-    <row r="1012" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="5:5" s="4" customFormat="1">
       <c r="E1012" s="8"/>
     </row>
-    <row r="1013" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="5:5" s="4" customFormat="1">
       <c r="E1013" s="8"/>
     </row>
-    <row r="1014" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="5:5" s="4" customFormat="1">
       <c r="E1014" s="8"/>
     </row>
-    <row r="1015" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="5:5" s="4" customFormat="1">
       <c r="E1015" s="8"/>
     </row>
-    <row r="1016" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="5:5" s="4" customFormat="1">
       <c r="E1016" s="8"/>
     </row>
-    <row r="1017" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="5:5" s="4" customFormat="1">
       <c r="E1017" s="8"/>
     </row>
-    <row r="1018" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="5:5" s="4" customFormat="1">
       <c r="E1018" s="8"/>
     </row>
-    <row r="1019" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="5:5" s="4" customFormat="1">
       <c r="E1019" s="8"/>
     </row>
-    <row r="1020" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="5:5" s="4" customFormat="1">
       <c r="E1020" s="8"/>
     </row>
-    <row r="1021" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="5:5" s="4" customFormat="1">
       <c r="E1021" s="8"/>
     </row>
-    <row r="1022" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="5:5" s="4" customFormat="1">
       <c r="E1022" s="8"/>
     </row>
-    <row r="1023" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="5:5" s="4" customFormat="1">
       <c r="E1023" s="8"/>
     </row>
-    <row r="1024" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="5:5" s="4" customFormat="1">
       <c r="E1024" s="8"/>
     </row>
-    <row r="1025" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="5:5" s="4" customFormat="1">
       <c r="E1025" s="8"/>
     </row>
-    <row r="1026" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="5:5" s="4" customFormat="1">
       <c r="E1026" s="8"/>
     </row>
-    <row r="1027" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="5:5" s="4" customFormat="1">
       <c r="E1027" s="8"/>
     </row>
-    <row r="1028" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="5:5" s="4" customFormat="1">
       <c r="E1028" s="8"/>
     </row>
-    <row r="1029" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="5:5" s="4" customFormat="1">
       <c r="E1029" s="8"/>
     </row>
-    <row r="1030" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="5:5" s="4" customFormat="1">
       <c r="E1030" s="8"/>
     </row>
-    <row r="1031" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="5:5" s="4" customFormat="1">
       <c r="E1031" s="8"/>
     </row>
-    <row r="1032" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="5:5" s="4" customFormat="1">
       <c r="E1032" s="8"/>
     </row>
-    <row r="1033" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="5:5" s="4" customFormat="1">
       <c r="E1033" s="8"/>
     </row>
-    <row r="1034" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="5:5" s="4" customFormat="1">
       <c r="E1034" s="8"/>
     </row>
-    <row r="1035" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="5:5" s="4" customFormat="1">
       <c r="E1035" s="8"/>
     </row>
-    <row r="1036" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="5:5" s="4" customFormat="1">
       <c r="E1036" s="8"/>
     </row>
-    <row r="1037" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="5:5" s="4" customFormat="1">
       <c r="E1037" s="8"/>
     </row>
-    <row r="1038" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="5:5" s="4" customFormat="1">
       <c r="E1038" s="8"/>
     </row>
-    <row r="1039" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="5:5" s="4" customFormat="1">
       <c r="E1039" s="8"/>
     </row>
-    <row r="1040" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="5:5" s="4" customFormat="1">
       <c r="E1040" s="8"/>
     </row>
-    <row r="1041" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="5:5" s="4" customFormat="1">
       <c r="E1041" s="8"/>
     </row>
-    <row r="1042" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="5:5" s="4" customFormat="1">
       <c r="E1042" s="8"/>
     </row>
-    <row r="1043" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="5:5" s="4" customFormat="1">
       <c r="E1043" s="8"/>
     </row>
-    <row r="1044" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="5:5" s="4" customFormat="1">
       <c r="E1044" s="8"/>
     </row>
-    <row r="1045" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="5:5" s="4" customFormat="1">
       <c r="E1045" s="8"/>
     </row>
-    <row r="1046" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="5:5" s="4" customFormat="1">
       <c r="E1046" s="8"/>
     </row>
-    <row r="1047" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="5:5" s="4" customFormat="1">
       <c r="E1047" s="8"/>
     </row>
-    <row r="1048" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="5:5" s="4" customFormat="1">
       <c r="E1048" s="8"/>
     </row>
-    <row r="1049" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="5:5" s="4" customFormat="1">
       <c r="E1049" s="8"/>
     </row>
-    <row r="1050" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="5:5" s="4" customFormat="1">
       <c r="E1050" s="8"/>
     </row>
-    <row r="1051" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="5:5" s="4" customFormat="1">
       <c r="E1051" s="8"/>
     </row>
-    <row r="1052" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="5:5" s="4" customFormat="1">
       <c r="E1052" s="8"/>
     </row>
-    <row r="1053" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="5:5" s="4" customFormat="1">
       <c r="E1053" s="8"/>
     </row>
-    <row r="1054" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="5:5" s="4" customFormat="1">
       <c r="E1054" s="8"/>
     </row>
-    <row r="1055" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="5:5" s="4" customFormat="1">
       <c r="E1055" s="8"/>
     </row>
-    <row r="1056" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="5:5" s="4" customFormat="1">
       <c r="E1056" s="8"/>
     </row>
-    <row r="1057" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="5:5" s="4" customFormat="1">
       <c r="E1057" s="8"/>
     </row>
-    <row r="1058" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="5:5" s="4" customFormat="1">
       <c r="E1058" s="8"/>
     </row>
-    <row r="1059" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="5:5" s="4" customFormat="1">
       <c r="E1059" s="8"/>
     </row>
-    <row r="1060" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="5:5" s="4" customFormat="1">
       <c r="E1060" s="8"/>
     </row>
-    <row r="1061" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="5:5" s="4" customFormat="1">
       <c r="E1061" s="8"/>
     </row>
-    <row r="1062" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="5:5" s="4" customFormat="1">
       <c r="E1062" s="8"/>
     </row>
-    <row r="1063" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="5:5" s="4" customFormat="1">
       <c r="E1063" s="8"/>
     </row>
-    <row r="1064" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="5:5" s="4" customFormat="1">
       <c r="E1064" s="8"/>
     </row>
-    <row r="1065" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="5:5" s="4" customFormat="1">
       <c r="E1065" s="8"/>
     </row>
-    <row r="1066" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="5:5" s="4" customFormat="1">
       <c r="E1066" s="8"/>
     </row>
-    <row r="1067" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="5:5" s="4" customFormat="1">
       <c r="E1067" s="8"/>
     </row>
-    <row r="1068" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="5:5" s="4" customFormat="1">
       <c r="E1068" s="8"/>
     </row>
-    <row r="1069" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="5:5" s="4" customFormat="1">
       <c r="E1069" s="8"/>
     </row>
-    <row r="1070" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="5:5" s="4" customFormat="1">
       <c r="E1070" s="8"/>
     </row>
-    <row r="1071" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="5:5" s="4" customFormat="1">
       <c r="E1071" s="8"/>
     </row>
-    <row r="1072" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="5:5" s="4" customFormat="1">
       <c r="E1072" s="8"/>
     </row>
-    <row r="1073" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="5:5" s="4" customFormat="1">
       <c r="E1073" s="8"/>
     </row>
-    <row r="1074" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="5:5" s="4" customFormat="1">
       <c r="E1074" s="8"/>
     </row>
-    <row r="1075" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="5:5" s="4" customFormat="1">
       <c r="E1075" s="8"/>
     </row>
-    <row r="1076" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="5:5" s="4" customFormat="1">
       <c r="E1076" s="8"/>
     </row>
-    <row r="1077" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="5:5" s="4" customFormat="1">
       <c r="E1077" s="8"/>
     </row>
-    <row r="1078" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="5:5" s="4" customFormat="1">
       <c r="E1078" s="8"/>
     </row>
-    <row r="1079" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="5:5" s="4" customFormat="1">
       <c r="E1079" s="8"/>
     </row>
-    <row r="1080" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="5:5" s="4" customFormat="1">
       <c r="E1080" s="8"/>
     </row>
-    <row r="1081" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="5:5" s="4" customFormat="1">
       <c r="E1081" s="8"/>
     </row>
-    <row r="1082" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="5:5" s="4" customFormat="1">
       <c r="E1082" s="8"/>
     </row>
-    <row r="1083" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="5:5" s="4" customFormat="1">
       <c r="E1083" s="8"/>
     </row>
-    <row r="1084" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="5:5" s="4" customFormat="1">
       <c r="E1084" s="8"/>
     </row>
-    <row r="1085" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="5:5" s="4" customFormat="1">
       <c r="E1085" s="8"/>
     </row>
-    <row r="1086" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="5:5" s="4" customFormat="1">
       <c r="E1086" s="8"/>
     </row>
-    <row r="1087" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="5:5" s="4" customFormat="1">
       <c r="E1087" s="8"/>
     </row>
-    <row r="1088" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="5:5" s="4" customFormat="1">
       <c r="E1088" s="8"/>
     </row>
-    <row r="1089" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="5:5" s="4" customFormat="1">
       <c r="E1089" s="8"/>
     </row>
-    <row r="1090" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="5:5" s="4" customFormat="1">
       <c r="E1090" s="8"/>
     </row>
-    <row r="1091" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="5:5" s="4" customFormat="1">
       <c r="E1091" s="8"/>
     </row>
-    <row r="1092" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="5:5" s="4" customFormat="1">
       <c r="E1092" s="8"/>
     </row>
-    <row r="1093" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="5:5" s="4" customFormat="1">
       <c r="E1093" s="8"/>
     </row>
-    <row r="1094" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="5:5" s="4" customFormat="1">
       <c r="E1094" s="8"/>
     </row>
-    <row r="1095" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="5:5" s="4" customFormat="1">
       <c r="E1095" s="8"/>
     </row>
-    <row r="1096" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="5:5" s="4" customFormat="1">
       <c r="E1096" s="8"/>
     </row>
-    <row r="1097" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="5:5" s="4" customFormat="1">
       <c r="E1097" s="8"/>
     </row>
-    <row r="1098" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="5:5" s="4" customFormat="1">
       <c r="E1098" s="8"/>
     </row>
-    <row r="1099" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="5:5" s="4" customFormat="1">
       <c r="E1099" s="8"/>
     </row>
-    <row r="1100" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="5:5" s="4" customFormat="1">
       <c r="E1100" s="8"/>
     </row>
-    <row r="1101" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="5:5" s="4" customFormat="1">
       <c r="E1101" s="8"/>
     </row>
-    <row r="1102" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="5:5" s="4" customFormat="1">
       <c r="E1102" s="8"/>
     </row>
-    <row r="1103" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="5:5" s="4" customFormat="1">
       <c r="E1103" s="8"/>
     </row>
-    <row r="1104" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="5:5" s="4" customFormat="1">
       <c r="E1104" s="8"/>
     </row>
-    <row r="1105" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="5:5" s="4" customFormat="1">
       <c r="E1105" s="8"/>
     </row>
-    <row r="1106" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="5:5" s="4" customFormat="1">
       <c r="E1106" s="8"/>
     </row>
-    <row r="1107" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="5:5" s="4" customFormat="1">
       <c r="E1107" s="8"/>
     </row>
-    <row r="1108" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="5:5" s="4" customFormat="1">
       <c r="E1108" s="8"/>
     </row>
-    <row r="1109" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="5:5" s="4" customFormat="1">
       <c r="E1109" s="8"/>
     </row>
-    <row r="1110" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="5:5" s="4" customFormat="1">
       <c r="E1110" s="8"/>
     </row>
-    <row r="1111" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="5:5" s="4" customFormat="1">
       <c r="E1111" s="8"/>
     </row>
-    <row r="1112" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="5:5" s="4" customFormat="1">
       <c r="E1112" s="8"/>
     </row>
-    <row r="1113" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="5:5" s="4" customFormat="1">
       <c r="E1113" s="8"/>
     </row>
-    <row r="1114" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="5:5" s="4" customFormat="1">
       <c r="E1114" s="8"/>
     </row>
-    <row r="1115" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="5:5" s="4" customFormat="1">
       <c r="E1115" s="8"/>
     </row>
-    <row r="1116" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="5:5" s="4" customFormat="1">
       <c r="E1116" s="8"/>
     </row>
-    <row r="1117" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="5:5" s="4" customFormat="1">
       <c r="E1117" s="8"/>
     </row>
-    <row r="1118" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="5:5" s="4" customFormat="1">
       <c r="E1118" s="8"/>
     </row>
-    <row r="1119" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1119" spans="5:5" s="4" customFormat="1">
       <c r="E1119" s="8"/>
     </row>
-    <row r="1120" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="5:5" s="4" customFormat="1">
       <c r="E1120" s="8"/>
     </row>
-    <row r="1121" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="5:5" s="4" customFormat="1">
       <c r="E1121" s="8"/>
     </row>
-    <row r="1122" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="5:5" s="4" customFormat="1">
       <c r="E1122" s="8"/>
     </row>
-    <row r="1123" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="5:5" s="4" customFormat="1">
       <c r="E1123" s="8"/>
     </row>
-    <row r="1124" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="5:5" s="4" customFormat="1">
       <c r="E1124" s="8"/>
     </row>
-    <row r="1125" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="5:5" s="4" customFormat="1">
       <c r="E1125" s="8"/>
     </row>
-    <row r="1126" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="5:5" s="4" customFormat="1">
       <c r="E1126" s="8"/>
     </row>
-    <row r="1127" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="5:5" s="4" customFormat="1">
       <c r="E1127" s="8"/>
     </row>
-    <row r="1128" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="5:5" s="4" customFormat="1">
       <c r="E1128" s="8"/>
     </row>
-    <row r="1129" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="5:5" s="4" customFormat="1">
       <c r="E1129" s="8"/>
     </row>
-    <row r="1130" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="5:5" s="4" customFormat="1">
       <c r="E1130" s="8"/>
     </row>
-    <row r="1131" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="5:5" s="4" customFormat="1">
       <c r="E1131" s="8"/>
     </row>
-    <row r="1132" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="5:5" s="4" customFormat="1">
       <c r="E1132" s="8"/>
     </row>
-    <row r="1133" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="5:5" s="4" customFormat="1">
       <c r="E1133" s="8"/>
     </row>
-    <row r="1134" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="5:5" s="4" customFormat="1">
       <c r="E1134" s="8"/>
     </row>
-    <row r="1135" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="5:5" s="4" customFormat="1">
       <c r="E1135" s="8"/>
     </row>
-    <row r="1136" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="5:5" s="4" customFormat="1">
       <c r="E1136" s="8"/>
     </row>
-    <row r="1137" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="5:5" s="4" customFormat="1">
       <c r="E1137" s="8"/>
     </row>
-    <row r="1138" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="5:5" s="4" customFormat="1">
       <c r="E1138" s="8"/>
     </row>
-    <row r="1139" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="5:5" s="4" customFormat="1">
       <c r="E1139" s="8"/>
     </row>
-    <row r="1140" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="5:5" s="4" customFormat="1">
       <c r="E1140" s="8"/>
     </row>
-    <row r="1141" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="5:5" s="4" customFormat="1">
       <c r="E1141" s="8"/>
     </row>
-    <row r="1142" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="5:5" s="4" customFormat="1">
       <c r="E1142" s="8"/>
     </row>
-    <row r="1143" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="5:5" s="4" customFormat="1">
       <c r="E1143" s="8"/>
     </row>
-    <row r="1144" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="5:5" s="4" customFormat="1">
       <c r="E1144" s="8"/>
     </row>
-    <row r="1145" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="5:5" s="4" customFormat="1">
       <c r="E1145" s="8"/>
     </row>
-    <row r="1146" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="5:5" s="4" customFormat="1">
       <c r="E1146" s="8"/>
     </row>
-    <row r="1147" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="5:5" s="4" customFormat="1">
       <c r="E1147" s="8"/>
     </row>
-    <row r="1148" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="5:5" s="4" customFormat="1">
       <c r="E1148" s="8"/>
     </row>
-    <row r="1149" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="5:5" s="4" customFormat="1">
       <c r="E1149" s="8"/>
     </row>
-    <row r="1150" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="5:5" s="4" customFormat="1">
       <c r="E1150" s="8"/>
     </row>
-    <row r="1151" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="5:5" s="4" customFormat="1">
       <c r="E1151" s="8"/>
     </row>
-    <row r="1152" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="5:5" s="4" customFormat="1">
       <c r="E1152" s="8"/>
     </row>
-    <row r="1153" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1153" spans="5:5" s="4" customFormat="1">
       <c r="E1153" s="8"/>
     </row>
-    <row r="1154" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="5:5" s="4" customFormat="1">
       <c r="E1154" s="8"/>
     </row>
-    <row r="1155" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="5:5" s="4" customFormat="1">
       <c r="E1155" s="8"/>
     </row>
-    <row r="1156" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="5:5" s="4" customFormat="1">
       <c r="E1156" s="8"/>
     </row>
-    <row r="1157" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="5:5" s="4" customFormat="1">
       <c r="E1157" s="8"/>
     </row>
-    <row r="1158" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="5:5" s="4" customFormat="1">
       <c r="E1158" s="8"/>
     </row>
-    <row r="1159" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="5:5" s="4" customFormat="1">
       <c r="E1159" s="8"/>
     </row>
-    <row r="1160" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="5:5" s="4" customFormat="1">
       <c r="E1160" s="8"/>
     </row>
-    <row r="1161" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="5:5" s="4" customFormat="1">
       <c r="E1161" s="8"/>
     </row>
-    <row r="1162" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="5:5" s="4" customFormat="1">
       <c r="E1162" s="8"/>
     </row>
-    <row r="1163" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="5:5" s="4" customFormat="1">
       <c r="E1163" s="8"/>
     </row>
-    <row r="1164" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="5:5" s="4" customFormat="1">
       <c r="E1164" s="8"/>
     </row>
-    <row r="1165" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="5:5" s="4" customFormat="1">
       <c r="E1165" s="8"/>
     </row>
-    <row r="1166" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="5:5" s="4" customFormat="1">
       <c r="E1166" s="8"/>
     </row>
-    <row r="1167" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="5:5" s="4" customFormat="1">
       <c r="E1167" s="8"/>
     </row>
-    <row r="1168" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="5:5" s="4" customFormat="1">
       <c r="E1168" s="8"/>
     </row>
-    <row r="1169" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="5:5" s="4" customFormat="1">
       <c r="E1169" s="8"/>
     </row>
-    <row r="1170" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="5:5" s="4" customFormat="1">
       <c r="E1170" s="8"/>
     </row>
-    <row r="1171" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="5:5" s="4" customFormat="1">
       <c r="E1171" s="8"/>
     </row>
-    <row r="1172" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="5:5" s="4" customFormat="1">
       <c r="E1172" s="8"/>
     </row>
-    <row r="1173" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="5:5" s="4" customFormat="1">
       <c r="E1173" s="8"/>
     </row>
-    <row r="1174" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="5:5" s="4" customFormat="1">
       <c r="E1174" s="8"/>
     </row>
-    <row r="1175" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="5:5" s="4" customFormat="1">
       <c r="E1175" s="8"/>
     </row>
-    <row r="1176" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="5:5" s="4" customFormat="1">
       <c r="E1176" s="8"/>
     </row>
-    <row r="1177" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="5:5" s="4" customFormat="1">
       <c r="E1177" s="8"/>
     </row>
-    <row r="1178" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="5:5" s="4" customFormat="1">
       <c r="E1178" s="8"/>
     </row>
-    <row r="1179" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="5:5" s="4" customFormat="1">
       <c r="E1179" s="8"/>
     </row>
-    <row r="1180" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="5:5" s="4" customFormat="1">
       <c r="E1180" s="8"/>
     </row>
-    <row r="1181" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="5:5" s="4" customFormat="1">
       <c r="E1181" s="8"/>
     </row>
-    <row r="1182" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="5:5" s="4" customFormat="1">
       <c r="E1182" s="8"/>
     </row>
-    <row r="1183" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="5:5" s="4" customFormat="1">
       <c r="E1183" s="8"/>
     </row>
-    <row r="1184" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="5:5" s="4" customFormat="1">
       <c r="E1184" s="8"/>
     </row>
-    <row r="1185" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="5:5" s="4" customFormat="1">
       <c r="E1185" s="8"/>
     </row>
-    <row r="1186" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="5:5" s="4" customFormat="1">
       <c r="E1186" s="8"/>
     </row>
-    <row r="1187" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="5:5" s="4" customFormat="1">
       <c r="E1187" s="8"/>
     </row>
-    <row r="1188" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="5:5" s="4" customFormat="1">
       <c r="E1188" s="8"/>
     </row>
-    <row r="1189" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="5:5" s="4" customFormat="1">
       <c r="E1189" s="8"/>
     </row>
-    <row r="1190" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="5:5" s="4" customFormat="1">
       <c r="E1190" s="8"/>
     </row>
-    <row r="1191" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="5:5" s="4" customFormat="1">
       <c r="E1191" s="8"/>
     </row>
-    <row r="1192" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="5:5" s="4" customFormat="1">
       <c r="E1192" s="8"/>
     </row>
-    <row r="1193" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1193" spans="5:5" s="4" customFormat="1">
       <c r="E1193" s="8"/>
     </row>
-    <row r="1194" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="5:5" s="4" customFormat="1">
       <c r="E1194" s="8"/>
     </row>
-    <row r="1195" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1195" spans="5:5" s="4" customFormat="1">
       <c r="E1195" s="8"/>
     </row>
-    <row r="1196" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1196" spans="5:5" s="4" customFormat="1">
       <c r="E1196" s="8"/>
     </row>
-    <row r="1197" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1197" spans="5:5" s="4" customFormat="1">
       <c r="E1197" s="8"/>
     </row>
-    <row r="1198" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="5:5" s="4" customFormat="1">
       <c r="E1198" s="8"/>
     </row>
-    <row r="1199" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1199" spans="5:5" s="4" customFormat="1">
       <c r="E1199" s="8"/>
     </row>
-    <row r="1200" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1200" spans="5:5" s="4" customFormat="1">
       <c r="E1200" s="8"/>
     </row>
-    <row r="1201" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1201" spans="5:5" s="4" customFormat="1">
       <c r="E1201" s="8"/>
     </row>
-    <row r="1202" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="5:5" s="4" customFormat="1">
       <c r="E1202" s="8"/>
     </row>
-    <row r="1203" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1203" spans="5:5" s="4" customFormat="1">
       <c r="E1203" s="8"/>
     </row>
-    <row r="1204" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1204" spans="5:5" s="4" customFormat="1">
       <c r="E1204" s="8"/>
     </row>
-    <row r="1205" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="5:5" s="4" customFormat="1">
       <c r="E1205" s="8"/>
     </row>
-    <row r="1206" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1206" spans="5:5" s="4" customFormat="1">
       <c r="E1206" s="8"/>
     </row>
-    <row r="1207" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1207" spans="5:5" s="4" customFormat="1">
       <c r="E1207" s="8"/>
     </row>
-    <row r="1208" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1208" spans="5:5" s="4" customFormat="1">
       <c r="E1208" s="8"/>
     </row>
-    <row r="1209" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1209" spans="5:5" s="4" customFormat="1">
       <c r="E1209" s="8"/>
     </row>
-    <row r="1210" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1210" spans="5:5" s="4" customFormat="1">
       <c r="E1210" s="8"/>
     </row>
-    <row r="1211" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1211" spans="5:5" s="4" customFormat="1">
       <c r="E1211" s="8"/>
     </row>
-    <row r="1212" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1212" spans="5:5" s="4" customFormat="1">
       <c r="E1212" s="8"/>
     </row>
-    <row r="1213" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1213" spans="5:5" s="4" customFormat="1">
       <c r="E1213" s="8"/>
     </row>
-    <row r="1214" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1214" spans="5:5" s="4" customFormat="1">
       <c r="E1214" s="8"/>
     </row>
-    <row r="1215" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1215" spans="5:5" s="4" customFormat="1">
       <c r="E1215" s="8"/>
     </row>
-    <row r="1216" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1216" spans="5:5" s="4" customFormat="1">
       <c r="E1216" s="8"/>
     </row>
-    <row r="1217" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1217" spans="5:5" s="4" customFormat="1">
       <c r="E1217" s="8"/>
     </row>
-    <row r="1218" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1218" spans="5:5" s="4" customFormat="1">
       <c r="E1218" s="8"/>
     </row>
-    <row r="1219" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1219" spans="5:5" s="4" customFormat="1">
       <c r="E1219" s="8"/>
     </row>
-    <row r="1220" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1220" spans="5:5" s="4" customFormat="1">
       <c r="E1220" s="8"/>
     </row>
-    <row r="1221" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1221" spans="5:5" s="4" customFormat="1">
       <c r="E1221" s="8"/>
     </row>
-    <row r="1222" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1222" spans="5:5" s="4" customFormat="1">
       <c r="E1222" s="8"/>
     </row>
-    <row r="1223" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1223" spans="5:5" s="4" customFormat="1">
       <c r="E1223" s="8"/>
     </row>
-    <row r="1224" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1224" spans="5:5" s="4" customFormat="1">
       <c r="E1224" s="8"/>
     </row>
-    <row r="1225" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1225" spans="5:5" s="4" customFormat="1">
       <c r="E1225" s="8"/>
     </row>
-    <row r="1226" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1226" spans="5:5" s="4" customFormat="1">
       <c r="E1226" s="8"/>
     </row>
-    <row r="1227" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1227" spans="5:5" s="4" customFormat="1">
       <c r="E1227" s="8"/>
     </row>
-    <row r="1228" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1228" spans="5:5" s="4" customFormat="1">
       <c r="E1228" s="8"/>
     </row>
-    <row r="1229" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1229" spans="5:5" s="4" customFormat="1">
       <c r="E1229" s="8"/>
     </row>
-    <row r="1230" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1230" spans="5:5" s="4" customFormat="1">
       <c r="E1230" s="8"/>
     </row>
-    <row r="1231" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1231" spans="5:5" s="4" customFormat="1">
       <c r="E1231" s="8"/>
     </row>
-    <row r="1232" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1232" spans="5:5" s="4" customFormat="1">
       <c r="E1232" s="8"/>
     </row>
-    <row r="1233" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1233" spans="5:5" s="4" customFormat="1">
       <c r="E1233" s="8"/>
     </row>
-    <row r="1234" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="5:5" s="4" customFormat="1">
       <c r="E1234" s="8"/>
     </row>
-    <row r="1235" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="5:5" s="4" customFormat="1">
       <c r="E1235" s="8"/>
     </row>
-    <row r="1236" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1236" spans="5:5" s="4" customFormat="1">
       <c r="E1236" s="8"/>
     </row>
-    <row r="1237" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1237" spans="5:5" s="4" customFormat="1">
       <c r="E1237" s="8"/>
     </row>
-    <row r="1238" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1238" spans="5:5" s="4" customFormat="1">
       <c r="E1238" s="8"/>
     </row>
-    <row r="1239" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1239" spans="5:5" s="4" customFormat="1">
       <c r="E1239" s="8"/>
     </row>
-    <row r="1240" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1240" spans="5:5" s="4" customFormat="1">
       <c r="E1240" s="8"/>
     </row>
-    <row r="1241" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1241" spans="5:5" s="4" customFormat="1">
       <c r="E1241" s="8"/>
     </row>
-    <row r="1242" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1242" spans="5:5" s="4" customFormat="1">
       <c r="E1242" s="8"/>
     </row>
-    <row r="1243" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1243" spans="5:5" s="4" customFormat="1">
       <c r="E1243" s="8"/>
     </row>
-    <row r="1244" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1244" spans="5:5" s="4" customFormat="1">
       <c r="E1244" s="8"/>
     </row>
-    <row r="1245" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1245" spans="5:5" s="4" customFormat="1">
       <c r="E1245" s="8"/>
     </row>
-    <row r="1246" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1246" spans="5:5" s="4" customFormat="1">
       <c r="E1246" s="8"/>
     </row>
-    <row r="1247" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="5:5" s="4" customFormat="1">
       <c r="E1247" s="8"/>
     </row>
-    <row r="1248" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1248" spans="5:5" s="4" customFormat="1">
       <c r="E1248" s="8"/>
     </row>
-    <row r="1249" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1249" spans="5:5" s="4" customFormat="1">
       <c r="E1249" s="8"/>
     </row>
-    <row r="1250" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1250" spans="5:5" s="4" customFormat="1">
       <c r="E1250" s="8"/>
     </row>
-    <row r="1251" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1251" spans="5:5" s="4" customFormat="1">
       <c r="E1251" s="8"/>
     </row>
-    <row r="1252" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1252" spans="5:5" s="4" customFormat="1">
       <c r="E1252" s="8"/>
     </row>
-    <row r="1253" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="5:5" s="4" customFormat="1">
       <c r="E1253" s="8"/>
     </row>
-    <row r="1254" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1254" spans="5:5" s="4" customFormat="1">
       <c r="E1254" s="8"/>
     </row>
-    <row r="1255" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1255" spans="5:5" s="4" customFormat="1">
       <c r="E1255" s="8"/>
     </row>
-    <row r="1256" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1256" spans="5:5" s="4" customFormat="1">
       <c r="E1256" s="8"/>
     </row>
-    <row r="1257" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1257" spans="5:5" s="4" customFormat="1">
       <c r="E1257" s="8"/>
     </row>
-    <row r="1258" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="5:5" s="4" customFormat="1">
       <c r="E1258" s="8"/>
     </row>
-    <row r="1259" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="5:5" s="4" customFormat="1">
       <c r="E1259" s="8"/>
     </row>
-    <row r="1260" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1260" spans="5:5" s="4" customFormat="1">
       <c r="E1260" s="8"/>
     </row>
-    <row r="1261" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1261" spans="5:5" s="4" customFormat="1">
       <c r="E1261" s="8"/>
     </row>
-    <row r="1262" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1262" spans="5:5" s="4" customFormat="1">
       <c r="E1262" s="8"/>
     </row>
-    <row r="1263" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1263" spans="5:5" s="4" customFormat="1">
       <c r="E1263" s="8"/>
     </row>
-    <row r="1264" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="5:5" s="4" customFormat="1">
       <c r="E1264" s="8"/>
     </row>
-    <row r="1265" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="5:5" s="4" customFormat="1">
       <c r="E1265" s="8"/>
     </row>
-    <row r="1266" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="5:5" s="4" customFormat="1">
       <c r="E1266" s="8"/>
     </row>
-    <row r="1267" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="5:5" s="4" customFormat="1">
       <c r="E1267" s="8"/>
     </row>
-    <row r="1268" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1268" spans="5:5" s="4" customFormat="1">
       <c r="E1268" s="8"/>
     </row>
-    <row r="1269" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1269" spans="5:5" s="4" customFormat="1">
       <c r="E1269" s="8"/>
     </row>
-    <row r="1270" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="5:5" s="4" customFormat="1">
       <c r="E1270" s="8"/>
     </row>
-    <row r="1271" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="5:5" s="4" customFormat="1">
       <c r="E1271" s="8"/>
     </row>
-    <row r="1272" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1272" spans="5:5" s="4" customFormat="1">
       <c r="E1272" s="8"/>
     </row>
-    <row r="1273" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="5:5" s="4" customFormat="1">
       <c r="E1273" s="8"/>
     </row>
-    <row r="1274" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="5:5" s="4" customFormat="1">
       <c r="E1274" s="8"/>
     </row>
-    <row r="1275" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1275" spans="5:5" s="4" customFormat="1">
       <c r="E1275" s="8"/>
     </row>
-    <row r="1276" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="5:5" s="4" customFormat="1">
       <c r="E1276" s="8"/>
     </row>
-    <row r="1277" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="5:5" s="4" customFormat="1">
       <c r="E1277" s="8"/>
     </row>
-    <row r="1278" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1278" spans="5:5" s="4" customFormat="1">
       <c r="E1278" s="8"/>
     </row>
-    <row r="1279" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1279" spans="5:5" s="4" customFormat="1">
       <c r="E1279" s="8"/>
     </row>
-    <row r="1280" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1280" spans="5:5" s="4" customFormat="1">
       <c r="E1280" s="8"/>
     </row>
-    <row r="1281" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1281" spans="5:5" s="4" customFormat="1">
       <c r="E1281" s="8"/>
     </row>
-    <row r="1282" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1282" spans="5:5" s="4" customFormat="1">
       <c r="E1282" s="8"/>
     </row>
-    <row r="1283" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="5:5" s="4" customFormat="1">
       <c r="E1283" s="8"/>
     </row>
-    <row r="1284" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1284" spans="5:5" s="4" customFormat="1">
       <c r="E1284" s="8"/>
     </row>
-    <row r="1285" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1285" spans="5:5" s="4" customFormat="1">
       <c r="E1285" s="8"/>
     </row>
-    <row r="1286" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1286" spans="5:5" s="4" customFormat="1">
       <c r="E1286" s="8"/>
     </row>
-    <row r="1287" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1287" spans="5:5" s="4" customFormat="1">
       <c r="E1287" s="8"/>
     </row>
-    <row r="1288" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1288" spans="5:5" s="4" customFormat="1">
       <c r="E1288" s="8"/>
     </row>
-    <row r="1289" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1289" spans="5:5" s="4" customFormat="1">
       <c r="E1289" s="8"/>
     </row>
-    <row r="1290" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1290" spans="5:5" s="4" customFormat="1">
       <c r="E1290" s="8"/>
     </row>
-    <row r="1291" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1291" spans="5:5" s="4" customFormat="1">
       <c r="E1291" s="8"/>
     </row>
-    <row r="1292" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1292" spans="5:5" s="4" customFormat="1">
       <c r="E1292" s="8"/>
     </row>
-    <row r="1293" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1293" spans="5:5" s="4" customFormat="1">
       <c r="E1293" s="8"/>
     </row>
-    <row r="1294" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1294" spans="5:5" s="4" customFormat="1">
       <c r="E1294" s="8"/>
     </row>
-    <row r="1295" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1295" spans="5:5" s="4" customFormat="1">
       <c r="E1295" s="8"/>
     </row>
-    <row r="1296" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1296" spans="5:5" s="4" customFormat="1">
       <c r="E1296" s="8"/>
     </row>
-    <row r="1297" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1297" spans="5:5" s="4" customFormat="1">
       <c r="E1297" s="8"/>
     </row>
-    <row r="1298" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1298" spans="5:5" s="4" customFormat="1">
       <c r="E1298" s="8"/>
     </row>
-    <row r="1299" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1299" spans="5:5" s="4" customFormat="1">
       <c r="E1299" s="8"/>
     </row>
-    <row r="1300" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="5:5" s="4" customFormat="1">
       <c r="E1300" s="8"/>
     </row>
-    <row r="1301" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="5:5" s="4" customFormat="1">
       <c r="E1301" s="8"/>
     </row>
-    <row r="1302" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1302" spans="5:5" s="4" customFormat="1">
       <c r="E1302" s="8"/>
     </row>
-    <row r="1303" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1303" spans="5:5" s="4" customFormat="1">
       <c r="E1303" s="8"/>
     </row>
-    <row r="1304" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1304" spans="5:5" s="4" customFormat="1">
       <c r="E1304" s="8"/>
     </row>
-    <row r="1305" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1305" spans="5:5" s="4" customFormat="1">
       <c r="E1305" s="8"/>
     </row>
-    <row r="1306" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="5:5" s="4" customFormat="1">
       <c r="E1306" s="8"/>
     </row>
-    <row r="1307" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="5:5" s="4" customFormat="1">
       <c r="E1307" s="8"/>
     </row>
-    <row r="1308" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="5:5" s="4" customFormat="1">
       <c r="E1308" s="8"/>
     </row>
-    <row r="1309" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="5:5" s="4" customFormat="1">
       <c r="E1309" s="8"/>
     </row>
-    <row r="1310" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="5:5" s="4" customFormat="1">
       <c r="E1310" s="8"/>
     </row>
-    <row r="1311" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1311" spans="5:5" s="4" customFormat="1">
       <c r="E1311" s="8"/>
     </row>
-    <row r="1312" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="5:5" s="4" customFormat="1">
       <c r="E1312" s="8"/>
     </row>
-    <row r="1313" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1313" spans="5:5" s="4" customFormat="1">
       <c r="E1313" s="8"/>
     </row>
-    <row r="1314" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1314" spans="5:5" s="4" customFormat="1">
       <c r="E1314" s="8"/>
     </row>
-    <row r="1315" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1315" spans="5:5" s="4" customFormat="1">
       <c r="E1315" s="8"/>
     </row>
-    <row r="1316" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1316" spans="5:5" s="4" customFormat="1">
       <c r="E1316" s="8"/>
     </row>
-    <row r="1317" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1317" spans="5:5" s="4" customFormat="1">
       <c r="E1317" s="8"/>
     </row>
-    <row r="1318" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="5:5" s="4" customFormat="1">
       <c r="E1318" s="8"/>
     </row>
-    <row r="1319" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="5:5" s="4" customFormat="1">
       <c r="E1319" s="8"/>
     </row>
-    <row r="1320" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="5:5" s="4" customFormat="1">
       <c r="E1320" s="8"/>
     </row>
-    <row r="1321" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1321" spans="5:5" s="4" customFormat="1">
       <c r="E1321" s="8"/>
     </row>
-    <row r="1322" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1322" spans="5:5" s="4" customFormat="1">
       <c r="E1322" s="8"/>
     </row>
-    <row r="1323" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1323" spans="5:5" s="4" customFormat="1">
       <c r="E1323" s="8"/>
     </row>
-    <row r="1324" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1324" spans="5:5" s="4" customFormat="1">
       <c r="E1324" s="8"/>
     </row>
-    <row r="1325" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1325" spans="5:5" s="4" customFormat="1">
       <c r="E1325" s="8"/>
     </row>
-    <row r="1326" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1326" spans="5:5" s="4" customFormat="1">
       <c r="E1326" s="8"/>
     </row>
-    <row r="1327" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1327" spans="5:5" s="4" customFormat="1">
       <c r="E1327" s="8"/>
     </row>
-    <row r="1328" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1328" spans="5:5" s="4" customFormat="1">
       <c r="E1328" s="8"/>
     </row>
-    <row r="1329" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1329" spans="5:5" s="4" customFormat="1">
       <c r="E1329" s="8"/>
     </row>
-    <row r="1330" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1330" spans="5:5" s="4" customFormat="1">
       <c r="E1330" s="8"/>
     </row>
-    <row r="1331" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1331" spans="5:5" s="4" customFormat="1">
       <c r="E1331" s="8"/>
     </row>
-    <row r="1332" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1332" spans="5:5" s="4" customFormat="1">
       <c r="E1332" s="8"/>
     </row>
-    <row r="1333" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1333" spans="5:5" s="4" customFormat="1">
       <c r="E1333" s="8"/>
     </row>
-    <row r="1334" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1334" spans="5:5" s="4" customFormat="1">
       <c r="E1334" s="8"/>
     </row>
-    <row r="1335" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1335" spans="5:5" s="4" customFormat="1">
       <c r="E1335" s="8"/>
     </row>
-    <row r="1336" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1336" spans="5:5" s="4" customFormat="1">
       <c r="E1336" s="8"/>
     </row>
-    <row r="1337" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1337" spans="5:5" s="4" customFormat="1">
       <c r="E1337" s="8"/>
     </row>
-    <row r="1338" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1338" spans="5:5" s="4" customFormat="1">
       <c r="E1338" s="8"/>
     </row>
-    <row r="1339" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1339" spans="5:5" s="4" customFormat="1">
       <c r="E1339" s="8"/>
     </row>
-    <row r="1340" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1340" spans="5:5" s="4" customFormat="1">
       <c r="E1340" s="8"/>
     </row>
-    <row r="1341" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1341" spans="5:5" s="4" customFormat="1">
       <c r="E1341" s="8"/>
     </row>
-    <row r="1342" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1342" spans="5:5" s="4" customFormat="1">
       <c r="E1342" s="8"/>
     </row>
-    <row r="1343" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1343" spans="5:5" s="4" customFormat="1">
       <c r="E1343" s="8"/>
     </row>
-    <row r="1344" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1344" spans="5:5" s="4" customFormat="1">
       <c r="E1344" s="8"/>
     </row>
-    <row r="1345" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1345" spans="5:5" s="4" customFormat="1">
       <c r="E1345" s="8"/>
     </row>
-    <row r="1346" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1346" spans="5:5" s="4" customFormat="1">
       <c r="E1346" s="8"/>
     </row>
-    <row r="1347" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1347" spans="5:5" s="4" customFormat="1">
       <c r="E1347" s="8"/>
     </row>
-    <row r="1348" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1348" spans="5:5" s="4" customFormat="1">
       <c r="E1348" s="8"/>
     </row>
-    <row r="1349" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1349" spans="5:5" s="4" customFormat="1">
       <c r="E1349" s="8"/>
     </row>
-    <row r="1350" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1350" spans="5:5" s="4" customFormat="1">
       <c r="E1350" s="8"/>
     </row>
-    <row r="1351" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1351" spans="5:5" s="4" customFormat="1">
       <c r="E1351" s="8"/>
     </row>
-    <row r="1352" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1352" spans="5:5" s="4" customFormat="1">
       <c r="E1352" s="8"/>
     </row>
-    <row r="1353" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1353" spans="5:5" s="4" customFormat="1">
       <c r="E1353" s="8"/>
     </row>
-    <row r="1354" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1354" spans="5:5" s="4" customFormat="1">
       <c r="E1354" s="8"/>
     </row>
-    <row r="1355" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1355" spans="5:5" s="4" customFormat="1">
       <c r="E1355" s="8"/>
     </row>
-    <row r="1356" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1356" spans="5:5" s="4" customFormat="1">
       <c r="E1356" s="8"/>
     </row>
-    <row r="1357" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1357" spans="5:5" s="4" customFormat="1">
       <c r="E1357" s="8"/>
     </row>
-    <row r="1358" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1358" spans="5:5" s="4" customFormat="1">
       <c r="E1358" s="8"/>
     </row>
-    <row r="1359" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1359" spans="5:5" s="4" customFormat="1">
       <c r="E1359" s="8"/>
     </row>
-    <row r="1360" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1360" spans="5:5" s="4" customFormat="1">
       <c r="E1360" s="8"/>
     </row>
-    <row r="1361" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1361" spans="5:5" s="4" customFormat="1">
       <c r="E1361" s="8"/>
     </row>
-    <row r="1362" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1362" spans="5:5" s="4" customFormat="1">
       <c r="E1362" s="8"/>
     </row>
-    <row r="1363" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1363" spans="5:5" s="4" customFormat="1">
       <c r="E1363" s="8"/>
     </row>
-    <row r="1364" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1364" spans="5:5" s="4" customFormat="1">
       <c r="E1364" s="8"/>
     </row>
-    <row r="1365" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1365" spans="5:5" s="4" customFormat="1">
       <c r="E1365" s="8"/>
     </row>
-    <row r="1366" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1366" spans="5:5" s="4" customFormat="1">
       <c r="E1366" s="8"/>
     </row>
-    <row r="1367" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1367" spans="5:5" s="4" customFormat="1">
       <c r="E1367" s="8"/>
     </row>
-    <row r="1368" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1368" spans="5:5" s="4" customFormat="1">
       <c r="E1368" s="8"/>
     </row>
-    <row r="1369" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1369" spans="5:5" s="4" customFormat="1">
       <c r="E1369" s="8"/>
     </row>
-    <row r="1370" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1370" spans="5:5" s="4" customFormat="1">
       <c r="E1370" s="8"/>
     </row>
-    <row r="1371" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1371" spans="5:5" s="4" customFormat="1">
       <c r="E1371" s="8"/>
     </row>
-    <row r="1372" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1372" spans="5:5" s="4" customFormat="1">
       <c r="E1372" s="8"/>
     </row>
-    <row r="1373" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1373" spans="5:5" s="4" customFormat="1">
       <c r="E1373" s="8"/>
     </row>
-    <row r="1374" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1374" spans="5:5" s="4" customFormat="1">
       <c r="E1374" s="8"/>
     </row>
-    <row r="1375" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1375" spans="5:5" s="4" customFormat="1">
       <c r="E1375" s="8"/>
     </row>
-    <row r="1376" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1376" spans="5:5" s="4" customFormat="1">
       <c r="E1376" s="8"/>
     </row>
-    <row r="1377" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1377" spans="5:5" s="4" customFormat="1">
       <c r="E1377" s="8"/>
     </row>
-    <row r="1378" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1378" spans="5:5" s="4" customFormat="1">
       <c r="E1378" s="8"/>
     </row>
-    <row r="1379" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1379" spans="5:5" s="4" customFormat="1">
       <c r="E1379" s="8"/>
     </row>
-    <row r="1380" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1380" spans="5:5" s="4" customFormat="1">
       <c r="E1380" s="8"/>
     </row>
-    <row r="1381" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1381" spans="5:5" s="4" customFormat="1">
       <c r="E1381" s="8"/>
     </row>
-    <row r="1382" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1382" spans="5:5" s="4" customFormat="1">
       <c r="E1382" s="8"/>
     </row>
-    <row r="1383" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1383" spans="5:5" s="4" customFormat="1">
       <c r="E1383" s="8"/>
     </row>
-    <row r="1384" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1384" spans="5:5" s="4" customFormat="1">
       <c r="E1384" s="8"/>
     </row>
-    <row r="1385" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1385" spans="5:5" s="4" customFormat="1">
       <c r="E1385" s="8"/>
     </row>
-    <row r="1386" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1386" spans="5:5" s="4" customFormat="1">
       <c r="E1386" s="8"/>
     </row>
-    <row r="1387" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1387" spans="5:5" s="4" customFormat="1">
       <c r="E1387" s="8"/>
     </row>
-    <row r="1388" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1388" spans="5:5" s="4" customFormat="1">
       <c r="E1388" s="8"/>
     </row>
-    <row r="1389" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1389" spans="5:5" s="4" customFormat="1">
       <c r="E1389" s="8"/>
     </row>
-    <row r="1390" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1390" spans="5:5" s="4" customFormat="1">
       <c r="E1390" s="8"/>
     </row>
-    <row r="1391" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1391" spans="5:5" s="4" customFormat="1">
       <c r="E1391" s="8"/>
     </row>
-    <row r="1392" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1392" spans="5:5" s="4" customFormat="1">
       <c r="E1392" s="8"/>
     </row>
-    <row r="1393" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1393" spans="5:5" s="4" customFormat="1">
       <c r="E1393" s="8"/>
     </row>
-    <row r="1394" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1394" spans="5:5" s="4" customFormat="1">
       <c r="E1394" s="8"/>
     </row>
-    <row r="1395" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1395" spans="5:5" s="4" customFormat="1">
       <c r="E1395" s="8"/>
     </row>
-    <row r="1396" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1396" spans="5:5" s="4" customFormat="1">
       <c r="E1396" s="8"/>
     </row>
-    <row r="1397" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1397" spans="5:5" s="4" customFormat="1">
       <c r="E1397" s="8"/>
     </row>
-    <row r="1398" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1398" spans="5:5" s="4" customFormat="1">
       <c r="E1398" s="8"/>
     </row>
-    <row r="1399" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1399" spans="5:5" s="4" customFormat="1">
       <c r="E1399" s="8"/>
     </row>
-    <row r="1400" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1400" spans="5:5" s="4" customFormat="1">
       <c r="E1400" s="8"/>
     </row>
-    <row r="1401" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1401" spans="5:5" s="4" customFormat="1">
       <c r="E1401" s="8"/>
     </row>
-    <row r="1402" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1402" spans="5:5" s="4" customFormat="1">
       <c r="E1402" s="8"/>
     </row>
-    <row r="1403" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1403" spans="5:5" s="4" customFormat="1">
       <c r="E1403" s="8"/>
     </row>
-    <row r="1404" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1404" spans="5:5" s="4" customFormat="1">
       <c r="E1404" s="8"/>
     </row>
-    <row r="1405" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1405" spans="5:5" s="4" customFormat="1">
       <c r="E1405" s="8"/>
     </row>
-    <row r="1406" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1406" spans="5:5" s="4" customFormat="1">
       <c r="E1406" s="8"/>
     </row>
-    <row r="1407" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1407" spans="5:5" s="4" customFormat="1">
       <c r="E1407" s="8"/>
     </row>
-    <row r="1408" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1408" spans="5:5" s="4" customFormat="1">
       <c r="E1408" s="8"/>
     </row>
-    <row r="1409" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1409" spans="5:5" s="4" customFormat="1">
       <c r="E1409" s="8"/>
     </row>
-    <row r="1410" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1410" spans="5:5" s="4" customFormat="1">
       <c r="E1410" s="8"/>
     </row>
-    <row r="1411" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1411" spans="5:5" s="4" customFormat="1">
       <c r="E1411" s="8"/>
     </row>
-    <row r="1412" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1412" spans="5:5" s="4" customFormat="1">
       <c r="E1412" s="8"/>
     </row>
-    <row r="1413" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1413" spans="5:5" s="4" customFormat="1">
       <c r="E1413" s="8"/>
     </row>
-    <row r="1414" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1414" spans="5:5" s="4" customFormat="1">
       <c r="E1414" s="8"/>
     </row>
-    <row r="1415" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1415" spans="5:5" s="4" customFormat="1">
       <c r="E1415" s="8"/>
     </row>
-    <row r="1416" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1416" spans="5:5" s="4" customFormat="1">
       <c r="E1416" s="8"/>
     </row>
-    <row r="1417" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1417" spans="5:5" s="4" customFormat="1">
       <c r="E1417" s="8"/>
     </row>
-    <row r="1418" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1418" spans="5:5" s="4" customFormat="1">
       <c r="E1418" s="8"/>
     </row>
-    <row r="1419" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1419" spans="5:5" s="4" customFormat="1">
       <c r="E1419" s="8"/>
     </row>
-    <row r="1420" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1420" spans="5:5" s="4" customFormat="1">
       <c r="E1420" s="8"/>
     </row>
-    <row r="1421" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1421" spans="5:5" s="4" customFormat="1">
       <c r="E1421" s="8"/>
     </row>
-    <row r="1422" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1422" spans="5:5" s="4" customFormat="1">
       <c r="E1422" s="8"/>
     </row>
-    <row r="1423" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1423" spans="5:5" s="4" customFormat="1">
       <c r="E1423" s="8"/>
     </row>
-    <row r="1424" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1424" spans="5:5" s="4" customFormat="1">
       <c r="E1424" s="8"/>
     </row>
-    <row r="1425" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1425" spans="5:5" s="4" customFormat="1">
       <c r="E1425" s="8"/>
     </row>
-    <row r="1426" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1426" spans="5:5" s="4" customFormat="1">
       <c r="E1426" s="8"/>
     </row>
-    <row r="1427" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1427" spans="5:5" s="4" customFormat="1">
       <c r="E1427" s="8"/>
     </row>
-    <row r="1428" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1428" spans="5:5" s="4" customFormat="1">
       <c r="E1428" s="8"/>
     </row>
-    <row r="1429" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1429" spans="5:5" s="4" customFormat="1">
       <c r="E1429" s="8"/>
     </row>
-    <row r="1430" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1430" spans="5:5" s="4" customFormat="1">
       <c r="E1430" s="8"/>
     </row>
-    <row r="1431" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1431" spans="5:5" s="4" customFormat="1">
       <c r="E1431" s="8"/>
     </row>
-    <row r="1432" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1432" spans="5:5" s="4" customFormat="1">
       <c r="E1432" s="8"/>
     </row>
-    <row r="1433" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1433" spans="5:5" s="4" customFormat="1">
       <c r="E1433" s="8"/>
     </row>
-    <row r="1441" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1441" spans="5:5" s="4" customFormat="1">
       <c r="E1441" s="8"/>
     </row>
-    <row r="1442" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1442" spans="5:5" s="4" customFormat="1">
       <c r="E1442" s="8"/>
     </row>
-    <row r="1443" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1443" spans="5:5" s="4" customFormat="1">
       <c r="E1443" s="8"/>
     </row>
-    <row r="1444" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1444" spans="5:5" s="4" customFormat="1">
       <c r="E1444" s="8"/>
     </row>
-    <row r="1445" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1445" spans="5:5" s="4" customFormat="1">
       <c r="E1445" s="8"/>
     </row>
-    <row r="1446" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1446" spans="5:5" s="4" customFormat="1">
       <c r="E1446" s="8"/>
     </row>
-    <row r="1447" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1447" spans="5:5" s="4" customFormat="1">
       <c r="E1447" s="8"/>
     </row>
-    <row r="1448" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1448" spans="5:5" s="4" customFormat="1">
       <c r="E1448" s="8"/>
     </row>
-    <row r="1449" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1449" spans="5:5" s="4" customFormat="1">
       <c r="E1449" s="8"/>
     </row>
-    <row r="1450" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1450" spans="5:5" s="4" customFormat="1">
       <c r="E1450" s="8"/>
     </row>
-    <row r="1451" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1451" spans="5:5" s="4" customFormat="1">
       <c r="E1451" s="8"/>
     </row>
-    <row r="1452" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1452" spans="5:5" s="4" customFormat="1">
       <c r="E1452" s="8"/>
     </row>
-    <row r="1453" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1453" spans="5:5" s="4" customFormat="1">
       <c r="E1453" s="8"/>
     </row>
-    <row r="1454" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1454" spans="5:5" s="4" customFormat="1">
       <c r="E1454" s="8"/>
     </row>
-    <row r="1455" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1455" spans="5:5" s="4" customFormat="1">
       <c r="E1455" s="8"/>
     </row>
-    <row r="1456" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1456" spans="5:5" s="4" customFormat="1">
       <c r="E1456" s="8"/>
     </row>
-    <row r="1457" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1457" spans="5:5" s="4" customFormat="1">
       <c r="E1457" s="8"/>
     </row>
-    <row r="1458" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1458" spans="5:5" s="4" customFormat="1">
       <c r="E1458" s="8"/>
     </row>
-    <row r="1459" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1459" spans="5:5" s="4" customFormat="1">
       <c r="E1459" s="8"/>
     </row>
-    <row r="1460" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1460" spans="5:5" s="4" customFormat="1">
       <c r="E1460" s="8"/>
     </row>
-    <row r="1461" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1461" spans="5:5" s="4" customFormat="1">
       <c r="E1461" s="8"/>
     </row>
-    <row r="1462" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1462" spans="5:5" s="4" customFormat="1">
       <c r="E1462" s="8"/>
     </row>
-    <row r="1463" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1463" spans="5:5" s="4" customFormat="1">
       <c r="E1463" s="8"/>
     </row>
   </sheetData>
@@ -7439,7 +7202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7447,20 +7210,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="122.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="122.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7486,7 +7249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>81506</v>
       </c>
@@ -7512,7 +7275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>81511</v>
       </c>
@@ -7538,7 +7301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>81516</v>
       </c>
@@ -7564,7 +7327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>81521</v>
       </c>
@@ -7590,7 +7353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>81526</v>
       </c>
@@ -7616,7 +7379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>81531</v>
       </c>
@@ -7642,7 +7405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>81536</v>
       </c>
@@ -7668,7 +7431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>81541</v>
       </c>
@@ -7694,7 +7457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>81546</v>
       </c>
@@ -7720,7 +7483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>81551</v>
       </c>
@@ -7746,7 +7509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>81556</v>
       </c>
@@ -7772,7 +7535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>81561</v>
       </c>
@@ -7798,7 +7561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>81566</v>
       </c>
@@ -7824,7 +7587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>81571</v>
       </c>
@@ -7850,7 +7613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>81576</v>
       </c>
@@ -7876,7 +7639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>81581</v>
       </c>
@@ -7902,7 +7665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>81586</v>
       </c>
@@ -7928,7 +7691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>81591</v>
       </c>
@@ -7954,7 +7717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>81596</v>
       </c>
@@ -7980,7 +7743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>81601</v>
       </c>
@@ -8006,7 +7769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>81606</v>
       </c>
@@ -8032,7 +7795,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>81611</v>
       </c>
@@ -8058,7 +7821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>81616</v>
       </c>
@@ -8084,7 +7847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>81621</v>
       </c>
@@ -8110,43 +7873,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="E31" s="11"/>
     </row>
-    <row r="35" spans="4:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" s="4" customFormat="1" ht="15">
       <c r="D35" s="13"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="4:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" s="4" customFormat="1" ht="15">
       <c r="D36" s="13"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="4:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" s="4" customFormat="1" ht="15">
       <c r="D37" s="13"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="4:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" s="4" customFormat="1" ht="15">
       <c r="D38" s="13"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -8159,24 +7922,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
@@ -8184,7 +7947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
@@ -8192,7 +7955,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>141</v>
       </c>
@@ -8200,7 +7963,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
@@ -8208,7 +7971,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>145</v>
       </c>
@@ -8216,7 +7979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>147</v>
       </c>
@@ -8224,7 +7987,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
@@ -8232,7 +7995,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
@@ -8240,7 +8003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
@@ -8248,7 +8011,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>155</v>
       </c>
@@ -8256,7 +8019,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -8264,7 +8027,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>158</v>
       </c>
@@ -8272,7 +8035,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>160</v>
       </c>
@@ -8280,7 +8043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>162</v>
       </c>
